--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1433.821273224999</v>
+        <v>1825.192307974886</v>
       </c>
       <c r="AB2" t="n">
-        <v>1961.817521756652</v>
+        <v>2497.308637572923</v>
       </c>
       <c r="AC2" t="n">
-        <v>1774.584410908382</v>
+        <v>2258.969006197648</v>
       </c>
       <c r="AD2" t="n">
-        <v>1433821.273224999</v>
+        <v>1825192.307974886</v>
       </c>
       <c r="AE2" t="n">
-        <v>1961817.521756652</v>
+        <v>2497308.637572923</v>
       </c>
       <c r="AF2" t="n">
         <v>2.025297207781764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1774584.410908382</v>
+        <v>2258969.006197649</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1055.953934247234</v>
+        <v>1359.262442982767</v>
       </c>
       <c r="AB3" t="n">
-        <v>1444.802758236812</v>
+        <v>1859.802840915788</v>
       </c>
       <c r="AC3" t="n">
-        <v>1306.912810784097</v>
+        <v>1682.305868028466</v>
       </c>
       <c r="AD3" t="n">
-        <v>1055953.934247234</v>
+        <v>1359262.442982767</v>
       </c>
       <c r="AE3" t="n">
-        <v>1444802.758236812</v>
+        <v>1859802.840915788</v>
       </c>
       <c r="AF3" t="n">
         <v>2.600449310324955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.36458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1306912.810784097</v>
+        <v>1682305.868028466</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>954.927468047655</v>
+        <v>1238.726254050195</v>
       </c>
       <c r="AB4" t="n">
-        <v>1306.573890209417</v>
+        <v>1694.879909536892</v>
       </c>
       <c r="AC4" t="n">
-        <v>1181.876311915802</v>
+        <v>1533.122949749583</v>
       </c>
       <c r="AD4" t="n">
-        <v>954927.468047655</v>
+        <v>1238726.254050195</v>
       </c>
       <c r="AE4" t="n">
-        <v>1306573.890209417</v>
+        <v>1694879.909536892</v>
       </c>
       <c r="AF4" t="n">
         <v>2.815611524102508e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.75520833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1181876.311915802</v>
+        <v>1533122.949749583</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>908.7236480399906</v>
+        <v>1172.912237112911</v>
       </c>
       <c r="AB5" t="n">
-        <v>1243.355785306253</v>
+        <v>1604.830268053791</v>
       </c>
       <c r="AC5" t="n">
-        <v>1124.691654217428</v>
+        <v>1451.667519664164</v>
       </c>
       <c r="AD5" t="n">
-        <v>908723.6480399906</v>
+        <v>1172912.237112911</v>
       </c>
       <c r="AE5" t="n">
-        <v>1243355.785306253</v>
+        <v>1604830.268053791</v>
       </c>
       <c r="AF5" t="n">
         <v>2.939766751100199e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.38541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1124691.654217428</v>
+        <v>1451667.519664164</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>883.9187182705381</v>
+        <v>1138.352951491891</v>
       </c>
       <c r="AB6" t="n">
-        <v>1209.41658607942</v>
+        <v>1557.544728819034</v>
       </c>
       <c r="AC6" t="n">
-        <v>1093.991564530838</v>
+        <v>1408.894845928301</v>
       </c>
       <c r="AD6" t="n">
-        <v>883918.718270538</v>
+        <v>1138352.95149189</v>
       </c>
       <c r="AE6" t="n">
-        <v>1209416.58607942</v>
+        <v>1557544.728819034</v>
       </c>
       <c r="AF6" t="n">
         <v>3.014079078715808e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.08333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1093991.564530838</v>
+        <v>1408894.845928301</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>863.8913112351214</v>
+        <v>1118.291379037693</v>
       </c>
       <c r="AB7" t="n">
-        <v>1182.014204226722</v>
+        <v>1530.095600333088</v>
       </c>
       <c r="AC7" t="n">
-        <v>1069.204427542678</v>
+        <v>1384.06542373996</v>
       </c>
       <c r="AD7" t="n">
-        <v>863891.3112351215</v>
+        <v>1118291.379037693</v>
       </c>
       <c r="AE7" t="n">
-        <v>1182014.204226722</v>
+        <v>1530095.600333088</v>
       </c>
       <c r="AF7" t="n">
         <v>3.061933083684821e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>1069204.427542678</v>
+        <v>1384065.42373996</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>845.724394928943</v>
+        <v>1100.191782539219</v>
       </c>
       <c r="AB8" t="n">
-        <v>1157.157427868826</v>
+        <v>1505.330933906034</v>
       </c>
       <c r="AC8" t="n">
-        <v>1046.719947033675</v>
+        <v>1361.664262319276</v>
       </c>
       <c r="AD8" t="n">
-        <v>845724.3949289429</v>
+        <v>1100191.782539219</v>
       </c>
       <c r="AE8" t="n">
-        <v>1157157.427868826</v>
+        <v>1505330.933906034</v>
       </c>
       <c r="AF8" t="n">
         <v>3.099300190839466e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.65104166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1046719.947033675</v>
+        <v>1361664.262319276</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>839.1325927366692</v>
+        <v>1093.49849512046</v>
       </c>
       <c r="AB9" t="n">
-        <v>1148.138233299568</v>
+        <v>1496.172882772687</v>
       </c>
       <c r="AC9" t="n">
-        <v>1038.561531735588</v>
+        <v>1353.38024273269</v>
       </c>
       <c r="AD9" t="n">
-        <v>839132.5927366691</v>
+        <v>1093498.49512046</v>
       </c>
       <c r="AE9" t="n">
-        <v>1148138.233299568</v>
+        <v>1496172.882772687</v>
       </c>
       <c r="AF9" t="n">
         <v>3.127687138371462e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.18229166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1038561.531735588</v>
+        <v>1353380.24273269</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>824.3648373409712</v>
+        <v>1078.798059532467</v>
       </c>
       <c r="AB10" t="n">
-        <v>1127.932338859787</v>
+        <v>1476.059098263748</v>
       </c>
       <c r="AC10" t="n">
-        <v>1020.284059501989</v>
+        <v>1335.18608958741</v>
       </c>
       <c r="AD10" t="n">
-        <v>824364.8373409712</v>
+        <v>1078798.059532467</v>
       </c>
       <c r="AE10" t="n">
-        <v>1127932.338859787</v>
+        <v>1476059.098263748</v>
       </c>
       <c r="AF10" t="n">
         <v>3.144562606118722e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.921875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1020284.059501989</v>
+        <v>1335186.08958741</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>819.4481505952156</v>
+        <v>1073.881372786711</v>
       </c>
       <c r="AB11" t="n">
-        <v>1121.205111145334</v>
+        <v>1469.331870549294</v>
       </c>
       <c r="AC11" t="n">
-        <v>1014.198868958879</v>
+        <v>1329.100899044301</v>
       </c>
       <c r="AD11" t="n">
-        <v>819448.1505952156</v>
+        <v>1073881.372786711</v>
       </c>
       <c r="AE11" t="n">
-        <v>1121205.111145334</v>
+        <v>1469331.870549294</v>
       </c>
       <c r="AF11" t="n">
         <v>3.165355593164451e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>49.58333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1014198.868958879</v>
+        <v>1329100.899044301</v>
       </c>
     </row>
     <row r="12">
@@ -6787,28 +6787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>813.5747781336848</v>
+        <v>1058.186324665908</v>
       </c>
       <c r="AB12" t="n">
-        <v>1113.168903828562</v>
+        <v>1447.857213293757</v>
       </c>
       <c r="AC12" t="n">
-        <v>1006.929625989532</v>
+        <v>1309.675752937362</v>
       </c>
       <c r="AD12" t="n">
-        <v>813574.7781336849</v>
+        <v>1058186.324665908</v>
       </c>
       <c r="AE12" t="n">
-        <v>1113168.903828562</v>
+        <v>1447857.213293757</v>
       </c>
       <c r="AF12" t="n">
         <v>3.186269119265519e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>50</v>
+        <v>49.27083333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1006929.625989532</v>
+        <v>1309675.752937362</v>
       </c>
     </row>
     <row r="13">
@@ -6893,28 +6893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>810.0399109269454</v>
+        <v>1054.651457459169</v>
       </c>
       <c r="AB13" t="n">
-        <v>1108.332342568966</v>
+        <v>1443.020652034161</v>
       </c>
       <c r="AC13" t="n">
-        <v>1002.554659348396</v>
+        <v>1305.300786296225</v>
       </c>
       <c r="AD13" t="n">
-        <v>810039.9109269454</v>
+        <v>1054651.457459169</v>
       </c>
       <c r="AE13" t="n">
-        <v>1108332.342568966</v>
+        <v>1443020.652034161</v>
       </c>
       <c r="AF13" t="n">
         <v>3.197780599050256e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>50</v>
+        <v>49.08854166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1002554.659348396</v>
+        <v>1305300.786296225</v>
       </c>
     </row>
     <row r="14">
@@ -6999,28 +6999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>797.5274632799471</v>
+        <v>1051.926520052662</v>
       </c>
       <c r="AB14" t="n">
-        <v>1091.212259688112</v>
+        <v>1439.292272458824</v>
       </c>
       <c r="AC14" t="n">
-        <v>987.0684931495033</v>
+        <v>1301.928238034745</v>
       </c>
       <c r="AD14" t="n">
-        <v>797527.4632799472</v>
+        <v>1051926.520052662</v>
       </c>
       <c r="AE14" t="n">
-        <v>1091212.259688112</v>
+        <v>1439292.272458824</v>
       </c>
       <c r="AF14" t="n">
         <v>3.203325395595785e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>49</v>
+        <v>48.984375</v>
       </c>
       <c r="AH14" t="n">
-        <v>987068.4931495033</v>
+        <v>1301928.238034745</v>
       </c>
     </row>
     <row r="15">
@@ -7105,28 +7105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>792.9852480719851</v>
+        <v>1037.664114411913</v>
       </c>
       <c r="AB15" t="n">
-        <v>1084.997400452186</v>
+        <v>1419.777819848223</v>
       </c>
       <c r="AC15" t="n">
-        <v>981.4467713564443</v>
+        <v>1284.276217392593</v>
       </c>
       <c r="AD15" t="n">
-        <v>792985.2480719851</v>
+        <v>1037664.114411913</v>
       </c>
       <c r="AE15" t="n">
-        <v>1084997.400452186</v>
+        <v>1419777.819848223</v>
       </c>
       <c r="AF15" t="n">
         <v>3.215981996406229e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>49</v>
+        <v>48.80208333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>981446.7713564443</v>
+        <v>1284276.217392593</v>
       </c>
     </row>
     <row r="16">
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>788.4530565328149</v>
+        <v>1033.131922872743</v>
       </c>
       <c r="AB16" t="n">
-        <v>1078.796256042114</v>
+        <v>1413.57667543815</v>
       </c>
       <c r="AC16" t="n">
-        <v>975.8374554655086</v>
+        <v>1278.666901501657</v>
       </c>
       <c r="AD16" t="n">
-        <v>788453.0565328149</v>
+        <v>1033131.922872743</v>
       </c>
       <c r="AE16" t="n">
-        <v>1078796.256042114</v>
+        <v>1413576.67543815</v>
       </c>
       <c r="AF16" t="n">
         <v>3.225986737999247e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>49</v>
+        <v>48.64583333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>975837.4554655086</v>
+        <v>1278666.901501657</v>
       </c>
     </row>
     <row r="17">
@@ -7317,28 +7317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>786.4073153594566</v>
+        <v>1031.086181699385</v>
       </c>
       <c r="AB17" t="n">
-        <v>1075.997182716994</v>
+        <v>1410.777602113031</v>
       </c>
       <c r="AC17" t="n">
-        <v>973.3055217700145</v>
+        <v>1276.134967806163</v>
       </c>
       <c r="AD17" t="n">
-        <v>786407.3153594566</v>
+        <v>1031086.181699385</v>
       </c>
       <c r="AE17" t="n">
-        <v>1075997.182716994</v>
+        <v>1410777.602113031</v>
       </c>
       <c r="AF17" t="n">
         <v>3.223937574058508e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>49</v>
+        <v>48.671875</v>
       </c>
       <c r="AH17" t="n">
-        <v>973305.5217700144</v>
+        <v>1276134.967806163</v>
       </c>
     </row>
     <row r="18">
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>783.3335069122996</v>
+        <v>1028.012373252228</v>
       </c>
       <c r="AB18" t="n">
-        <v>1071.791462392736</v>
+        <v>1406.571881788773</v>
       </c>
       <c r="AC18" t="n">
-        <v>969.5011894907379</v>
+        <v>1272.330635526886</v>
       </c>
       <c r="AD18" t="n">
-        <v>783333.5069122997</v>
+        <v>1028012.373252228</v>
       </c>
       <c r="AE18" t="n">
-        <v>1071791.462392736</v>
+        <v>1406571.881788773</v>
       </c>
       <c r="AF18" t="n">
         <v>3.235629862426252e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>49</v>
+        <v>48.515625</v>
       </c>
       <c r="AH18" t="n">
-        <v>969501.189490738</v>
+        <v>1272330.635526886</v>
       </c>
     </row>
     <row r="19">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>779.3240583260399</v>
+        <v>1024.002924665968</v>
       </c>
       <c r="AB19" t="n">
-        <v>1066.305557952628</v>
+        <v>1401.085977348665</v>
       </c>
       <c r="AC19" t="n">
-        <v>964.5388520708784</v>
+        <v>1267.368298107027</v>
       </c>
       <c r="AD19" t="n">
-        <v>779324.0583260399</v>
+        <v>1024002.924665968</v>
       </c>
       <c r="AE19" t="n">
-        <v>1066305.557952628</v>
+        <v>1401085.977348665</v>
       </c>
       <c r="AF19" t="n">
         <v>3.235690131953921e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>49</v>
+        <v>48.515625</v>
       </c>
       <c r="AH19" t="n">
-        <v>964538.8520708784</v>
+        <v>1267368.298107027</v>
       </c>
     </row>
     <row r="20">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>775.8263108250112</v>
+        <v>1020.403691938454</v>
       </c>
       <c r="AB20" t="n">
-        <v>1061.519785511992</v>
+        <v>1396.161348343939</v>
       </c>
       <c r="AC20" t="n">
-        <v>960.2098270351024</v>
+        <v>1262.913668782752</v>
       </c>
       <c r="AD20" t="n">
-        <v>775826.3108250112</v>
+        <v>1020403.691938454</v>
       </c>
       <c r="AE20" t="n">
-        <v>1061519.785511991</v>
+        <v>1396161.348343939</v>
       </c>
       <c r="AF20" t="n">
         <v>3.247563228904671e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>49</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>960209.8270351024</v>
+        <v>1262913.668782752</v>
       </c>
     </row>
     <row r="21">
@@ -7741,28 +7741,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>773.6629770053584</v>
+        <v>1018.240358118801</v>
       </c>
       <c r="AB21" t="n">
-        <v>1058.55981674039</v>
+        <v>1393.201379572337</v>
       </c>
       <c r="AC21" t="n">
-        <v>957.5323535287204</v>
+        <v>1260.23619527637</v>
       </c>
       <c r="AD21" t="n">
-        <v>773662.9770053583</v>
+        <v>1018240.358118801</v>
       </c>
       <c r="AE21" t="n">
-        <v>1058559.81674039</v>
+        <v>1393201.379572337</v>
       </c>
       <c r="AF21" t="n">
         <v>3.244851100159576e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>49</v>
+        <v>48.359375</v>
       </c>
       <c r="AH21" t="n">
-        <v>957532.3535287203</v>
+        <v>1260236.19527637</v>
       </c>
     </row>
     <row r="22">
@@ -7847,28 +7847,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>772.5479615580375</v>
+        <v>1017.12534267148</v>
       </c>
       <c r="AB22" t="n">
-        <v>1057.034203414356</v>
+        <v>1391.675766246303</v>
       </c>
       <c r="AC22" t="n">
-        <v>956.1523425973111</v>
+        <v>1258.856184344961</v>
       </c>
       <c r="AD22" t="n">
-        <v>772547.9615580376</v>
+        <v>1017125.34267148</v>
       </c>
       <c r="AE22" t="n">
-        <v>1057034.203414356</v>
+        <v>1391675.766246303</v>
       </c>
       <c r="AF22" t="n">
         <v>3.245574334491601e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>49</v>
+        <v>48.359375</v>
       </c>
       <c r="AH22" t="n">
-        <v>956152.3425973111</v>
+        <v>1258856.184344961</v>
       </c>
     </row>
     <row r="23">
@@ -7953,28 +7953,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>770.7717964362492</v>
+        <v>1005.628987116905</v>
       </c>
       <c r="AB23" t="n">
-        <v>1054.60397593585</v>
+        <v>1375.945945393122</v>
       </c>
       <c r="AC23" t="n">
-        <v>953.9540526185085</v>
+        <v>1244.627595517065</v>
       </c>
       <c r="AD23" t="n">
-        <v>770771.7964362493</v>
+        <v>1005628.987116905</v>
       </c>
       <c r="AE23" t="n">
-        <v>1054603.97593585</v>
+        <v>1375945.945393122</v>
       </c>
       <c r="AF23" t="n">
         <v>3.25750770097002e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>49</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>953954.0526185085</v>
+        <v>1244627.595517065</v>
       </c>
     </row>
   </sheetData>
@@ -8250,28 +8250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1194.197894632434</v>
+        <v>1542.527847972279</v>
       </c>
       <c r="AB2" t="n">
-        <v>1633.954243728937</v>
+        <v>2110.55465312149</v>
       </c>
       <c r="AC2" t="n">
-        <v>1478.011943976631</v>
+        <v>1909.126279209634</v>
       </c>
       <c r="AD2" t="n">
-        <v>1194197.894632434</v>
+        <v>1542527.847972279</v>
       </c>
       <c r="AE2" t="n">
-        <v>1633954.243728937</v>
+        <v>2110554.65312149</v>
       </c>
       <c r="AF2" t="n">
         <v>2.475347510338388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1478011.943976631</v>
+        <v>1909126.279209634</v>
       </c>
     </row>
     <row r="3">
@@ -8356,28 +8356,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>928.8116949339106</v>
+        <v>1209.513454868265</v>
       </c>
       <c r="AB3" t="n">
-        <v>1270.841137288596</v>
+        <v>1654.909668918432</v>
       </c>
       <c r="AC3" t="n">
-        <v>1149.553842782511</v>
+        <v>1496.967412797164</v>
       </c>
       <c r="AD3" t="n">
-        <v>928811.6949339106</v>
+        <v>1209513.454868265</v>
       </c>
       <c r="AE3" t="n">
-        <v>1270841.137288596</v>
+        <v>1654909.668918432</v>
       </c>
       <c r="AF3" t="n">
         <v>3.029425456359891e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.69270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1149553.842782511</v>
+        <v>1496967.412797164</v>
       </c>
     </row>
     <row r="4">
@@ -8462,28 +8462,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>862.76969245055</v>
+        <v>1124.043034276984</v>
       </c>
       <c r="AB4" t="n">
-        <v>1180.479555923343</v>
+        <v>1537.965268776606</v>
       </c>
       <c r="AC4" t="n">
-        <v>1067.81624391948</v>
+        <v>1391.184022072378</v>
       </c>
       <c r="AD4" t="n">
-        <v>862769.69245055</v>
+        <v>1124043.034276984</v>
       </c>
       <c r="AE4" t="n">
-        <v>1180479.555923343</v>
+        <v>1537965.268776606</v>
       </c>
       <c r="AF4" t="n">
         <v>3.230428738849006e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.15104166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1067816.243919481</v>
+        <v>1391184.022072378</v>
       </c>
     </row>
     <row r="5">
@@ -8568,28 +8568,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>819.4548045862755</v>
+        <v>1071.047597262601</v>
       </c>
       <c r="AB5" t="n">
-        <v>1121.214215429455</v>
+        <v>1465.454573859854</v>
       </c>
       <c r="AC5" t="n">
-        <v>1014.207104342902</v>
+        <v>1325.593646109081</v>
       </c>
       <c r="AD5" t="n">
-        <v>819454.8045862755</v>
+        <v>1071047.597262601</v>
       </c>
       <c r="AE5" t="n">
-        <v>1121214.215429456</v>
+        <v>1465454.573859854</v>
       </c>
       <c r="AF5" t="n">
         <v>3.363375791833932e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.06770833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1014207.104342902</v>
+        <v>1325593.646109081</v>
       </c>
     </row>
     <row r="6">
@@ -8674,28 +8674,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>803.3730206080212</v>
+        <v>1054.931647865566</v>
       </c>
       <c r="AB6" t="n">
-        <v>1099.210409112171</v>
+        <v>1443.404020909322</v>
       </c>
       <c r="AC6" t="n">
-        <v>994.3033104180034</v>
+        <v>1305.647566984003</v>
       </c>
       <c r="AD6" t="n">
-        <v>803373.0206080212</v>
+        <v>1054931.647865566</v>
       </c>
       <c r="AE6" t="n">
-        <v>1099210.409112171</v>
+        <v>1443404.020909322</v>
       </c>
       <c r="AF6" t="n">
         <v>3.403734718632928e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.44270833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>994303.3104180035</v>
+        <v>1305647.566984003</v>
       </c>
     </row>
     <row r="7">
@@ -8780,28 +8780,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>784.3976477911942</v>
+        <v>1036.023594856444</v>
       </c>
       <c r="AB7" t="n">
-        <v>1073.247466889822</v>
+        <v>1417.533188617815</v>
       </c>
       <c r="AC7" t="n">
-        <v>970.818234962137</v>
+        <v>1282.245810616455</v>
       </c>
       <c r="AD7" t="n">
-        <v>784397.6477911943</v>
+        <v>1036023.594856444</v>
       </c>
       <c r="AE7" t="n">
-        <v>1073247.466889822</v>
+        <v>1417533.188617815</v>
       </c>
       <c r="AF7" t="n">
         <v>3.451611484737618e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>970818.2349621371</v>
+        <v>1282245.810616455</v>
       </c>
     </row>
     <row r="8">
@@ -8886,28 +8886,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>777.5461999866552</v>
+        <v>1019.458443512873</v>
       </c>
       <c r="AB8" t="n">
-        <v>1063.873013739107</v>
+        <v>1394.868017746641</v>
       </c>
       <c r="AC8" t="n">
-        <v>962.3384664629989</v>
+        <v>1261.743771842459</v>
       </c>
       <c r="AD8" t="n">
-        <v>777546.1999866553</v>
+        <v>1019458.443512873</v>
       </c>
       <c r="AE8" t="n">
-        <v>1063873.013739107</v>
+        <v>1394868.017746641</v>
       </c>
       <c r="AF8" t="n">
         <v>3.479770409154564e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.34895833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>962338.4664629989</v>
+        <v>1261743.771842459</v>
       </c>
     </row>
     <row r="9">
@@ -8992,28 +8992,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>761.8376176692806</v>
+        <v>1013.429399315749</v>
       </c>
       <c r="AB9" t="n">
-        <v>1042.379838398734</v>
+        <v>1386.618813493479</v>
       </c>
       <c r="AC9" t="n">
-        <v>942.8965696112497</v>
+        <v>1254.281860065388</v>
       </c>
       <c r="AD9" t="n">
-        <v>761837.6176692806</v>
+        <v>1013429.399315749</v>
       </c>
       <c r="AE9" t="n">
-        <v>1042379.838398734</v>
+        <v>1386618.813493479</v>
       </c>
       <c r="AF9" t="n">
         <v>3.507269873983291e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>49</v>
+        <v>48.95833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>942896.5696112497</v>
+        <v>1254281.860065388</v>
       </c>
     </row>
     <row r="10">
@@ -9098,28 +9098,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>756.59863122712</v>
+        <v>998.5781945610421</v>
       </c>
       <c r="AB10" t="n">
-        <v>1035.2116260208</v>
+        <v>1366.298739959175</v>
       </c>
       <c r="AC10" t="n">
-        <v>936.4124813620166</v>
+        <v>1235.901105829797</v>
       </c>
       <c r="AD10" t="n">
-        <v>756598.6312271199</v>
+        <v>998578.1945610421</v>
       </c>
       <c r="AE10" t="n">
-        <v>1035211.6260208</v>
+        <v>1366298.739959175</v>
       </c>
       <c r="AF10" t="n">
         <v>3.527713121218077e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>49</v>
+        <v>48.671875</v>
       </c>
       <c r="AH10" t="n">
-        <v>936412.4813620166</v>
+        <v>1235901.105829797</v>
       </c>
     </row>
     <row r="11">
@@ -9204,28 +9204,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>749.75968335913</v>
+        <v>991.637761466567</v>
       </c>
       <c r="AB11" t="n">
-        <v>1025.85427583473</v>
+        <v>1356.802533209016</v>
       </c>
       <c r="AC11" t="n">
-        <v>927.948183544582</v>
+        <v>1227.311203723863</v>
       </c>
       <c r="AD11" t="n">
-        <v>749759.6833591301</v>
+        <v>991637.7614665669</v>
       </c>
       <c r="AE11" t="n">
-        <v>1025854.27583473</v>
+        <v>1356802.533209017</v>
       </c>
       <c r="AF11" t="n">
         <v>3.549673125505765e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>49</v>
+        <v>48.38541666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>927948.183544582</v>
+        <v>1227311.203723863</v>
       </c>
     </row>
     <row r="12">
@@ -9310,28 +9310,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>746.2723805441486</v>
+        <v>988.1504586515855</v>
       </c>
       <c r="AB12" t="n">
-        <v>1021.082794274331</v>
+        <v>1352.031051648617</v>
       </c>
       <c r="AC12" t="n">
-        <v>923.6320854874903</v>
+        <v>1222.995105666771</v>
       </c>
       <c r="AD12" t="n">
-        <v>746272.3805441486</v>
+        <v>988150.4586515855</v>
       </c>
       <c r="AE12" t="n">
-        <v>1021082.794274331</v>
+        <v>1352031.051648617</v>
       </c>
       <c r="AF12" t="n">
         <v>3.558377992070254e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>48.25520833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>923632.0854874903</v>
+        <v>1222995.105666771</v>
       </c>
     </row>
     <row r="13">
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>741.8140373720562</v>
+        <v>974.0798971669467</v>
       </c>
       <c r="AB13" t="n">
-        <v>1014.982692458055</v>
+        <v>1332.779088675971</v>
       </c>
       <c r="AC13" t="n">
-        <v>918.1141688270131</v>
+        <v>1205.580523019935</v>
       </c>
       <c r="AD13" t="n">
-        <v>741814.0373720562</v>
+        <v>974079.8971669467</v>
       </c>
       <c r="AE13" t="n">
-        <v>1014982.692458055</v>
+        <v>1332779.088675971</v>
       </c>
       <c r="AF13" t="n">
         <v>3.569390967193511e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.125</v>
       </c>
       <c r="AH13" t="n">
-        <v>918114.1688270131</v>
+        <v>1205580.523019935</v>
       </c>
     </row>
     <row r="14">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>724.6694003654061</v>
+        <v>966.6147982805473</v>
       </c>
       <c r="AB14" t="n">
-        <v>991.5246437375527</v>
+        <v>1322.56501104268</v>
       </c>
       <c r="AC14" t="n">
-        <v>896.8949233528177</v>
+        <v>1196.341262620417</v>
       </c>
       <c r="AD14" t="n">
-        <v>724669.4003654061</v>
+        <v>966614.7982805474</v>
       </c>
       <c r="AE14" t="n">
-        <v>991524.6437375527</v>
+        <v>1322565.01104268</v>
       </c>
       <c r="AF14" t="n">
         <v>3.587328267993064e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>896894.9233528178</v>
+        <v>1196341.262620417</v>
       </c>
     </row>
     <row r="15">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>722.8154227310521</v>
+        <v>964.7608206461933</v>
       </c>
       <c r="AB15" t="n">
-        <v>988.987949746509</v>
+        <v>1320.028317051637</v>
       </c>
       <c r="AC15" t="n">
-        <v>894.6003278760068</v>
+        <v>1194.046667143607</v>
       </c>
       <c r="AD15" t="n">
-        <v>722815.422731052</v>
+        <v>964760.8206461933</v>
       </c>
       <c r="AE15" t="n">
-        <v>988987.949746509</v>
+        <v>1320028.317051637</v>
       </c>
       <c r="AF15" t="n">
         <v>3.587394213951885e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>894600.3278760067</v>
+        <v>1194046.667143607</v>
       </c>
     </row>
     <row r="16">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>722.9050674453827</v>
+        <v>964.8504653605241</v>
       </c>
       <c r="AB16" t="n">
-        <v>989.1106055995019</v>
+        <v>1320.150972904629</v>
       </c>
       <c r="AC16" t="n">
-        <v>894.7112776265386</v>
+        <v>1194.157616894139</v>
       </c>
       <c r="AD16" t="n">
-        <v>722905.0674453827</v>
+        <v>964850.4653605241</v>
       </c>
       <c r="AE16" t="n">
-        <v>989110.6055995019</v>
+        <v>1320150.97290463</v>
       </c>
       <c r="AF16" t="n">
         <v>3.586405024569557e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>48</v>
+        <v>47.890625</v>
       </c>
       <c r="AH16" t="n">
-        <v>894711.2776265386</v>
+        <v>1194157.616894139</v>
       </c>
     </row>
   </sheetData>
@@ -10031,28 +10031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>764.0884976086323</v>
+        <v>1035.294971804359</v>
       </c>
       <c r="AB2" t="n">
-        <v>1045.45959163357</v>
+        <v>1416.536254413372</v>
       </c>
       <c r="AC2" t="n">
-        <v>945.6823955198138</v>
+        <v>1281.344022413279</v>
       </c>
       <c r="AD2" t="n">
-        <v>764088.4976086323</v>
+        <v>1035294.971804359</v>
       </c>
       <c r="AE2" t="n">
-        <v>1045459.59163357</v>
+        <v>1416536.254413372</v>
       </c>
       <c r="AF2" t="n">
         <v>4.369436030013739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.86979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>945682.3955198138</v>
+        <v>1281344.022413279</v>
       </c>
     </row>
     <row r="3">
@@ -10137,28 +10137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>674.6022766329655</v>
+        <v>917.7764710282935</v>
       </c>
       <c r="AB3" t="n">
-        <v>923.0205962412183</v>
+        <v>1255.742257101212</v>
       </c>
       <c r="AC3" t="n">
-        <v>834.9288060034988</v>
+        <v>1135.895978528799</v>
       </c>
       <c r="AD3" t="n">
-        <v>674602.2766329655</v>
+        <v>917776.4710282935</v>
       </c>
       <c r="AE3" t="n">
-        <v>923020.5962412183</v>
+        <v>1255742.257101212</v>
       </c>
       <c r="AF3" t="n">
         <v>4.814847889066542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.79166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>834928.8060034988</v>
+        <v>1135895.978528799</v>
       </c>
     </row>
     <row r="4">
@@ -10243,28 +10243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>647.5062007899282</v>
+        <v>871.9704427356602</v>
       </c>
       <c r="AB4" t="n">
-        <v>885.9465498782752</v>
+        <v>1193.068428371886</v>
       </c>
       <c r="AC4" t="n">
-        <v>801.3930545916843</v>
+        <v>1079.203652050128</v>
       </c>
       <c r="AD4" t="n">
-        <v>647506.2007899282</v>
+        <v>871970.4427356602</v>
       </c>
       <c r="AE4" t="n">
-        <v>885946.5498782751</v>
+        <v>1193068.428371886</v>
       </c>
       <c r="AF4" t="n">
         <v>4.980899344683663e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>801393.0545916843</v>
+        <v>1079203.652050128</v>
       </c>
     </row>
     <row r="5">
@@ -10349,28 +10349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>626.5937829309399</v>
+        <v>851.0238594578913</v>
       </c>
       <c r="AB5" t="n">
-        <v>857.3332571728448</v>
+        <v>1164.408389033207</v>
       </c>
       <c r="AC5" t="n">
-        <v>775.5105743830516</v>
+        <v>1053.278886641315</v>
       </c>
       <c r="AD5" t="n">
-        <v>626593.7829309399</v>
+        <v>851023.8594578913</v>
       </c>
       <c r="AE5" t="n">
-        <v>857333.2571728448</v>
+        <v>1164408.389033207</v>
       </c>
       <c r="AF5" t="n">
         <v>5.05021017953937e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.47395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>775510.5743830516</v>
+        <v>1053278.886641315</v>
       </c>
     </row>
     <row r="6">
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>625.2604528092371</v>
+        <v>849.6905293361883</v>
       </c>
       <c r="AB6" t="n">
-        <v>855.5089360779574</v>
+        <v>1162.58406793832</v>
       </c>
       <c r="AC6" t="n">
-        <v>773.8603639330096</v>
+        <v>1051.628676191273</v>
       </c>
       <c r="AD6" t="n">
-        <v>625260.4528092371</v>
+        <v>849690.5293361883</v>
       </c>
       <c r="AE6" t="n">
-        <v>855508.9360779574</v>
+        <v>1162584.06793832</v>
       </c>
       <c r="AF6" t="n">
         <v>5.066410321550796e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.31770833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>773860.3639330096</v>
+        <v>1051628.676191273</v>
       </c>
     </row>
   </sheetData>
@@ -10752,28 +10752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>900.9662007520765</v>
+        <v>1185.341819379958</v>
       </c>
       <c r="AB2" t="n">
-        <v>1232.741703692509</v>
+        <v>1621.836970866033</v>
       </c>
       <c r="AC2" t="n">
-        <v>1115.090565655942</v>
+        <v>1467.051126629063</v>
       </c>
       <c r="AD2" t="n">
-        <v>900966.2007520765</v>
+        <v>1185341.819379958</v>
       </c>
       <c r="AE2" t="n">
-        <v>1232741.703692508</v>
+        <v>1621836.970866033</v>
       </c>
       <c r="AF2" t="n">
         <v>3.500950657240369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1115090.565655942</v>
+        <v>1467051.126629063</v>
       </c>
     </row>
     <row r="3">
@@ -10858,28 +10858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>757.6177703033464</v>
+        <v>1013.578832934715</v>
       </c>
       <c r="AB3" t="n">
-        <v>1036.606057066136</v>
+        <v>1386.823275163494</v>
       </c>
       <c r="AC3" t="n">
-        <v>937.6738298654819</v>
+        <v>1254.466808200581</v>
       </c>
       <c r="AD3" t="n">
-        <v>757617.7703033464</v>
+        <v>1013578.832934715</v>
       </c>
       <c r="AE3" t="n">
-        <v>1036606.057066136</v>
+        <v>1386823.275163494</v>
       </c>
       <c r="AF3" t="n">
         <v>3.997636074937653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.92708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>937673.8298654819</v>
+        <v>1254466.808200581</v>
       </c>
     </row>
     <row r="4">
@@ -10964,28 +10964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>713.3416850078481</v>
+        <v>950.304452993335</v>
       </c>
       <c r="AB4" t="n">
-        <v>976.0255638418107</v>
+        <v>1300.248477059067</v>
       </c>
       <c r="AC4" t="n">
-        <v>882.8750538892299</v>
+        <v>1176.154587318748</v>
       </c>
       <c r="AD4" t="n">
-        <v>713341.6850078481</v>
+        <v>950304.452993335</v>
       </c>
       <c r="AE4" t="n">
-        <v>976025.5638418107</v>
+        <v>1300248.477059067</v>
       </c>
       <c r="AF4" t="n">
         <v>4.201698772627438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.40104166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>882875.0538892299</v>
+        <v>1176154.587318748</v>
       </c>
     </row>
     <row r="5">
@@ -11070,28 +11070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>695.2402259198183</v>
+        <v>932.2703137130096</v>
       </c>
       <c r="AB5" t="n">
-        <v>951.2583489375543</v>
+        <v>1275.573372085652</v>
       </c>
       <c r="AC5" t="n">
-        <v>860.4715872144312</v>
+        <v>1153.834439732268</v>
       </c>
       <c r="AD5" t="n">
-        <v>695240.2259198183</v>
+        <v>932270.3137130096</v>
       </c>
       <c r="AE5" t="n">
-        <v>951258.3489375543</v>
+        <v>1275573.372085652</v>
       </c>
       <c r="AF5" t="n">
         <v>4.258373998431125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>860471.5872144313</v>
+        <v>1153834.439732268</v>
       </c>
     </row>
     <row r="6">
@@ -11176,28 +11176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>685.0804097097628</v>
+        <v>912.5947729855515</v>
       </c>
       <c r="AB6" t="n">
-        <v>937.3572401794989</v>
+        <v>1248.652429238749</v>
       </c>
       <c r="AC6" t="n">
-        <v>847.8971807659161</v>
+        <v>1129.482793886893</v>
       </c>
       <c r="AD6" t="n">
-        <v>685080.4097097628</v>
+        <v>912594.7729855515</v>
       </c>
       <c r="AE6" t="n">
-        <v>937357.2401794989</v>
+        <v>1248652.429238749</v>
       </c>
       <c r="AF6" t="n">
         <v>4.320310215659626e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>847897.1807659161</v>
+        <v>1129482.793886893</v>
       </c>
     </row>
     <row r="7">
@@ -11282,28 +11282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>667.569454751876</v>
+        <v>904.5653771262868</v>
       </c>
       <c r="AB7" t="n">
-        <v>913.3979790773079</v>
+        <v>1237.666255592158</v>
       </c>
       <c r="AC7" t="n">
-        <v>826.2245579162841</v>
+        <v>1119.545125233941</v>
       </c>
       <c r="AD7" t="n">
-        <v>667569.4547518761</v>
+        <v>904565.3771262867</v>
       </c>
       <c r="AE7" t="n">
-        <v>913397.979077308</v>
+        <v>1237666.255592158</v>
       </c>
       <c r="AF7" t="n">
         <v>4.357376291607184e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.63020833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>826224.5579162841</v>
+        <v>1119545.125233941</v>
       </c>
     </row>
     <row r="8">
@@ -11388,28 +11388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>660.3593117283707</v>
+        <v>887.8395095853788</v>
       </c>
       <c r="AB8" t="n">
-        <v>903.5327433034873</v>
+        <v>1214.78118572949</v>
       </c>
       <c r="AC8" t="n">
-        <v>817.3008463987715</v>
+        <v>1098.844174319569</v>
       </c>
       <c r="AD8" t="n">
-        <v>660359.3117283707</v>
+        <v>887839.5095853788</v>
       </c>
       <c r="AE8" t="n">
-        <v>903532.7433034873</v>
+        <v>1214781.18572949</v>
       </c>
       <c r="AF8" t="n">
         <v>4.375949185576606e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>48</v>
+        <v>47.44791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>817300.8463987715</v>
+        <v>1098844.174319569</v>
       </c>
     </row>
     <row r="9">
@@ -11494,28 +11494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>659.5008106672808</v>
+        <v>886.981008524289</v>
       </c>
       <c r="AB9" t="n">
-        <v>902.3581042773104</v>
+        <v>1213.606546703313</v>
       </c>
       <c r="AC9" t="n">
-        <v>816.2383132726369</v>
+        <v>1097.781641193434</v>
       </c>
       <c r="AD9" t="n">
-        <v>659500.8106672808</v>
+        <v>886981.008524289</v>
       </c>
       <c r="AE9" t="n">
-        <v>902358.1042773104</v>
+        <v>1213606.546703313</v>
       </c>
       <c r="AF9" t="n">
         <v>4.388782816173503e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>48</v>
+        <v>47.29166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>816238.3132726368</v>
+        <v>1097781.641193434</v>
       </c>
     </row>
   </sheetData>
@@ -11791,28 +11791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>674.5772849153082</v>
+        <v>924.2925202395303</v>
       </c>
       <c r="AB2" t="n">
-        <v>922.9864014705629</v>
+        <v>1264.657803099829</v>
       </c>
       <c r="AC2" t="n">
-        <v>834.8978747337621</v>
+        <v>1143.960637330355</v>
       </c>
       <c r="AD2" t="n">
-        <v>674577.2849153081</v>
+        <v>924292.5202395302</v>
       </c>
       <c r="AE2" t="n">
-        <v>922986.4014705629</v>
+        <v>1264657.803099829</v>
       </c>
       <c r="AF2" t="n">
         <v>5.281548208436472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.97916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>834897.8747337621</v>
+        <v>1143960.637330355</v>
       </c>
     </row>
     <row r="3">
@@ -11897,28 +11897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>615.8553713008237</v>
+        <v>847.000800434987</v>
       </c>
       <c r="AB3" t="n">
-        <v>842.6404886352339</v>
+        <v>1158.903862193232</v>
       </c>
       <c r="AC3" t="n">
-        <v>762.22006305324</v>
+        <v>1048.299704117295</v>
       </c>
       <c r="AD3" t="n">
-        <v>615855.3713008236</v>
+        <v>847000.8004349871</v>
       </c>
       <c r="AE3" t="n">
-        <v>842640.4886352338</v>
+        <v>1158903.862193232</v>
       </c>
       <c r="AF3" t="n">
         <v>5.682274095021838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.30729166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>762220.06305324</v>
+        <v>1048299.704117295</v>
       </c>
     </row>
     <row r="4">
@@ -12003,28 +12003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>597.5881008514287</v>
+        <v>819.5164522131956</v>
       </c>
       <c r="AB4" t="n">
-        <v>817.6464033112767</v>
+        <v>1121.298564432309</v>
       </c>
       <c r="AC4" t="n">
-        <v>739.6113781531823</v>
+        <v>1014.283403195308</v>
       </c>
       <c r="AD4" t="n">
-        <v>597588.1008514287</v>
+        <v>819516.4522131956</v>
       </c>
       <c r="AE4" t="n">
-        <v>817646.4033112767</v>
+        <v>1121298.564432309</v>
       </c>
       <c r="AF4" t="n">
         <v>5.780531534195096e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>739611.3781531822</v>
+        <v>1014283.403195308</v>
       </c>
     </row>
   </sheetData>
@@ -12300,28 +12300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1253.32040661737</v>
+        <v>1612.380952409913</v>
       </c>
       <c r="AB2" t="n">
-        <v>1714.84827292787</v>
+        <v>2206.130752314533</v>
       </c>
       <c r="AC2" t="n">
-        <v>1551.185560564301</v>
+        <v>1995.580729637591</v>
       </c>
       <c r="AD2" t="n">
-        <v>1253320.40661737</v>
+        <v>1612380.952409913</v>
       </c>
       <c r="AE2" t="n">
-        <v>1714848.27292787</v>
+        <v>2206130.752314533</v>
       </c>
       <c r="AF2" t="n">
         <v>2.346048310623696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1551185.560564301</v>
+        <v>1995580.729637591</v>
       </c>
     </row>
     <row r="3">
@@ -12406,28 +12406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>959.7851900712479</v>
+        <v>1250.984720198489</v>
       </c>
       <c r="AB3" t="n">
-        <v>1313.220439789668</v>
+        <v>1711.652483726346</v>
       </c>
       <c r="AC3" t="n">
-        <v>1187.888524132604</v>
+        <v>1548.294772998851</v>
       </c>
       <c r="AD3" t="n">
-        <v>959785.190071248</v>
+        <v>1250984.720198489</v>
       </c>
       <c r="AE3" t="n">
-        <v>1313220.439789668</v>
+        <v>1711652.483726345</v>
       </c>
       <c r="AF3" t="n">
         <v>2.911130881821487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1187888.524132604</v>
+        <v>1548294.772998851</v>
       </c>
     </row>
     <row r="4">
@@ -12512,28 +12512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>880.7980690160334</v>
+        <v>1152.579741745622</v>
       </c>
       <c r="AB4" t="n">
-        <v>1205.146776096078</v>
+        <v>1577.010450885877</v>
       </c>
       <c r="AC4" t="n">
-        <v>1090.129259219591</v>
+        <v>1426.502786801397</v>
       </c>
       <c r="AD4" t="n">
-        <v>880798.0690160334</v>
+        <v>1152579.741745621</v>
       </c>
       <c r="AE4" t="n">
-        <v>1205146.776096078</v>
+        <v>1577010.450885877</v>
       </c>
       <c r="AF4" t="n">
         <v>3.116094779927051e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.77604166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1090129.259219591</v>
+        <v>1426502.786801397</v>
       </c>
     </row>
     <row r="5">
@@ -12618,28 +12618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>838.4796504961073</v>
+        <v>1100.552394526869</v>
       </c>
       <c r="AB5" t="n">
-        <v>1147.244848920253</v>
+        <v>1505.824339136614</v>
       </c>
       <c r="AC5" t="n">
-        <v>1037.753410707561</v>
+        <v>1362.110577647148</v>
       </c>
       <c r="AD5" t="n">
-        <v>838479.6504961073</v>
+        <v>1100552.394526869</v>
       </c>
       <c r="AE5" t="n">
-        <v>1147244.848920253</v>
+        <v>1505824.339136614</v>
       </c>
       <c r="AF5" t="n">
         <v>3.236177239539292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1037753.410707562</v>
+        <v>1362110.577647148</v>
       </c>
     </row>
     <row r="6">
@@ -12724,28 +12724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>818.3048870467525</v>
+        <v>1080.343465658733</v>
       </c>
       <c r="AB6" t="n">
-        <v>1119.640847521099</v>
+        <v>1478.173591104211</v>
       </c>
       <c r="AC6" t="n">
-        <v>1012.783896459483</v>
+        <v>1337.09877819889</v>
       </c>
       <c r="AD6" t="n">
-        <v>818304.8870467525</v>
+        <v>1080343.465658733</v>
       </c>
       <c r="AE6" t="n">
-        <v>1119640.847521099</v>
+        <v>1478173.591104211</v>
       </c>
       <c r="AF6" t="n">
         <v>3.296025410728672e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.83333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1012783.896459483</v>
+        <v>1337098.77819889</v>
       </c>
     </row>
     <row r="7">
@@ -12830,28 +12830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>809.5661453934887</v>
+        <v>1052.222043056454</v>
       </c>
       <c r="AB7" t="n">
-        <v>1107.684115665031</v>
+        <v>1439.696620070167</v>
       </c>
       <c r="AC7" t="n">
-        <v>1001.96829831038</v>
+        <v>1302.293995277566</v>
       </c>
       <c r="AD7" t="n">
-        <v>809566.1453934887</v>
+        <v>1052222.043056454</v>
       </c>
       <c r="AE7" t="n">
-        <v>1107684.11566503</v>
+        <v>1439696.620070167</v>
       </c>
       <c r="AF7" t="n">
         <v>3.341909008640529e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.15625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1001968.29831038</v>
+        <v>1302293.995277566</v>
       </c>
     </row>
     <row r="8">
@@ -12936,28 +12936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>791.2342898059907</v>
+        <v>1043.598105137925</v>
       </c>
       <c r="AB8" t="n">
-        <v>1082.601662105825</v>
+        <v>1427.896967748747</v>
       </c>
       <c r="AC8" t="n">
-        <v>979.2796789154204</v>
+        <v>1291.620485212787</v>
       </c>
       <c r="AD8" t="n">
-        <v>791234.2898059906</v>
+        <v>1043598.105137925</v>
       </c>
       <c r="AE8" t="n">
-        <v>1082601.662105825</v>
+        <v>1427896.967748747</v>
       </c>
       <c r="AF8" t="n">
         <v>3.383352258367369e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.53125</v>
       </c>
       <c r="AH8" t="n">
-        <v>979279.6789154204</v>
+        <v>1291620.485212787</v>
       </c>
     </row>
     <row r="9">
@@ -13042,28 +13042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>786.9916151359506</v>
+        <v>1029.613347380134</v>
       </c>
       <c r="AB9" t="n">
-        <v>1076.79664744868</v>
+        <v>1408.762405220569</v>
       </c>
       <c r="AC9" t="n">
-        <v>974.028686709764</v>
+        <v>1274.312098476771</v>
       </c>
       <c r="AD9" t="n">
-        <v>786991.6151359506</v>
+        <v>1029613.347380135</v>
       </c>
       <c r="AE9" t="n">
-        <v>1076796.64744868</v>
+        <v>1408762.405220569</v>
       </c>
       <c r="AF9" t="n">
         <v>3.397252478772644e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.32291666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>974028.6867097639</v>
+        <v>1274312.098476771</v>
       </c>
     </row>
     <row r="10">
@@ -13148,28 +13148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>780.951263677754</v>
+        <v>1023.572995921938</v>
       </c>
       <c r="AB10" t="n">
-        <v>1068.531972102077</v>
+        <v>1400.497729873965</v>
       </c>
       <c r="AC10" t="n">
-        <v>966.5527803786956</v>
+        <v>1266.836192145702</v>
       </c>
       <c r="AD10" t="n">
-        <v>780951.263677754</v>
+        <v>1023572.995921938</v>
       </c>
       <c r="AE10" t="n">
-        <v>1068531.972102077</v>
+        <v>1400497.729873965</v>
       </c>
       <c r="AF10" t="n">
         <v>3.419711631186723e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.01041666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>966552.7803786956</v>
+        <v>1266836.192145702</v>
       </c>
     </row>
     <row r="11">
@@ -13254,28 +13254,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>764.9693959820459</v>
+        <v>1007.658448033934</v>
       </c>
       <c r="AB11" t="n">
-        <v>1046.664875650567</v>
+        <v>1378.722743353297</v>
       </c>
       <c r="AC11" t="n">
-        <v>946.7726489218558</v>
+        <v>1247.139379777181</v>
       </c>
       <c r="AD11" t="n">
-        <v>764969.3959820458</v>
+        <v>1007658.448033934</v>
       </c>
       <c r="AE11" t="n">
-        <v>1046664.875650567</v>
+        <v>1378722.743353297</v>
       </c>
       <c r="AF11" t="n">
         <v>3.44146290200609e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>49</v>
+        <v>48.69791666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>946772.6489218557</v>
+        <v>1247139.379777181</v>
       </c>
     </row>
     <row r="12">
@@ -13360,28 +13360,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>759.6699035498827</v>
+        <v>1002.257470375286</v>
       </c>
       <c r="AB12" t="n">
-        <v>1039.413876307776</v>
+        <v>1371.332887446417</v>
       </c>
       <c r="AC12" t="n">
-        <v>940.213674779499</v>
+        <v>1240.454801346326</v>
       </c>
       <c r="AD12" t="n">
-        <v>759669.9035498827</v>
+        <v>1002257.470375286</v>
       </c>
       <c r="AE12" t="n">
-        <v>1039413.876307776</v>
+        <v>1371332.887446417</v>
       </c>
       <c r="AF12" t="n">
         <v>3.459159941873917e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>48.4375</v>
       </c>
       <c r="AH12" t="n">
-        <v>940213.6747794989</v>
+        <v>1240454.801346326</v>
       </c>
     </row>
     <row r="13">
@@ -13466,28 +13466,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>756.7972781130277</v>
+        <v>999.3848449384308</v>
       </c>
       <c r="AB13" t="n">
-        <v>1035.483423453781</v>
+        <v>1367.402434592422</v>
       </c>
       <c r="AC13" t="n">
-        <v>936.658338829464</v>
+        <v>1236.899465396291</v>
       </c>
       <c r="AD13" t="n">
-        <v>756797.2781130277</v>
+        <v>999384.8449384308</v>
       </c>
       <c r="AE13" t="n">
-        <v>1035483.423453781</v>
+        <v>1367402.434592422</v>
       </c>
       <c r="AF13" t="n">
         <v>3.458001590173477e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.46354166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>936658.338829464</v>
+        <v>1236899.465396291</v>
       </c>
     </row>
     <row r="14">
@@ -13572,28 +13572,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>752.3543023878876</v>
+        <v>994.9418692132905</v>
       </c>
       <c r="AB14" t="n">
-        <v>1029.404348056389</v>
+        <v>1361.32335919503</v>
       </c>
       <c r="AC14" t="n">
-        <v>931.1594418559631</v>
+        <v>1231.40056842279</v>
       </c>
       <c r="AD14" t="n">
-        <v>752354.3023878876</v>
+        <v>994941.8692132905</v>
       </c>
       <c r="AE14" t="n">
-        <v>1029404.348056389</v>
+        <v>1361323.35919503</v>
       </c>
       <c r="AF14" t="n">
         <v>3.469134637072147e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>49</v>
+        <v>48.30729166666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>931159.4418559631</v>
+        <v>1231400.56842279</v>
       </c>
     </row>
     <row r="15">
@@ -13678,28 +13678,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>747.9673514128012</v>
+        <v>980.9143203769391</v>
       </c>
       <c r="AB15" t="n">
-        <v>1023.401928193658</v>
+        <v>1342.130248025355</v>
       </c>
       <c r="AC15" t="n">
-        <v>925.7298845204823</v>
+        <v>1214.039220845449</v>
       </c>
       <c r="AD15" t="n">
-        <v>747967.3514128012</v>
+        <v>980914.3203769391</v>
       </c>
       <c r="AE15" t="n">
-        <v>1023401.928193658</v>
+        <v>1342130.248025355</v>
       </c>
       <c r="AF15" t="n">
         <v>3.478208392058924e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>49</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>925729.8845204823</v>
+        <v>1214039.220845449</v>
       </c>
     </row>
     <row r="16">
@@ -13784,28 +13784,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>744.1777117133462</v>
+        <v>977.124680677484</v>
       </c>
       <c r="AB16" t="n">
-        <v>1018.21677596976</v>
+        <v>1336.945095801457</v>
       </c>
       <c r="AC16" t="n">
-        <v>921.0395959474258</v>
+        <v>1209.348932272392</v>
       </c>
       <c r="AD16" t="n">
-        <v>744177.7117133462</v>
+        <v>977124.680677484</v>
       </c>
       <c r="AE16" t="n">
-        <v>1018216.77596976</v>
+        <v>1336945.095801457</v>
       </c>
       <c r="AF16" t="n">
         <v>3.4901780262968e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>49</v>
+        <v>48.02083333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>921039.5959474258</v>
+        <v>1209348.932272392</v>
       </c>
     </row>
     <row r="17">
@@ -13890,28 +13890,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>742.1691175185611</v>
+        <v>975.1160864826991</v>
       </c>
       <c r="AB17" t="n">
-        <v>1015.468528779533</v>
+        <v>1334.19684861123</v>
       </c>
       <c r="AC17" t="n">
-        <v>918.553637611845</v>
+        <v>1206.862973936812</v>
       </c>
       <c r="AD17" t="n">
-        <v>742169.1175185611</v>
+        <v>975116.086482699</v>
       </c>
       <c r="AE17" t="n">
-        <v>1015468.528779533</v>
+        <v>1334196.84861123</v>
       </c>
       <c r="AF17" t="n">
         <v>3.487990028640414e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>49</v>
+        <v>48.046875</v>
       </c>
       <c r="AH17" t="n">
-        <v>918553.637611845</v>
+        <v>1206862.973936812</v>
       </c>
     </row>
     <row r="18">
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>742.1846322410183</v>
+        <v>975.1316012051561</v>
       </c>
       <c r="AB18" t="n">
-        <v>1015.48975670726</v>
+        <v>1334.218076538958</v>
       </c>
       <c r="AC18" t="n">
-        <v>918.5728395759436</v>
+        <v>1206.88217590091</v>
       </c>
       <c r="AD18" t="n">
-        <v>742184.6322410183</v>
+        <v>975131.6012051562</v>
       </c>
       <c r="AE18" t="n">
-        <v>1015489.75670726</v>
+        <v>1334218.076538958</v>
       </c>
       <c r="AF18" t="n">
         <v>3.484836737900328e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>49</v>
+        <v>48.09895833333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>918572.8395759435</v>
+        <v>1206882.17590091</v>
       </c>
     </row>
     <row r="19">
@@ -14102,28 +14102,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>743.4099059144963</v>
+        <v>976.3568748786341</v>
       </c>
       <c r="AB19" t="n">
-        <v>1017.166230202572</v>
+        <v>1335.894550034269</v>
       </c>
       <c r="AC19" t="n">
-        <v>920.0893127938082</v>
+        <v>1208.398649118775</v>
       </c>
       <c r="AD19" t="n">
-        <v>743409.9059144963</v>
+        <v>976356.8748786341</v>
       </c>
       <c r="AE19" t="n">
-        <v>1017166.230202572</v>
+        <v>1335894.550034269</v>
       </c>
       <c r="AF19" t="n">
         <v>3.484579326411341e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>49</v>
+        <v>48.09895833333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>920089.3127938082</v>
+        <v>1208398.649118775</v>
       </c>
     </row>
   </sheetData>
@@ -14399,28 +14399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>632.1152921600271</v>
+        <v>871.0086041825874</v>
       </c>
       <c r="AB2" t="n">
-        <v>864.8880296918774</v>
+        <v>1191.752398430249</v>
       </c>
       <c r="AC2" t="n">
-        <v>782.3443300160574</v>
+        <v>1078.013222159062</v>
       </c>
       <c r="AD2" t="n">
-        <v>632115.2921600272</v>
+        <v>871008.6041825875</v>
       </c>
       <c r="AE2" t="n">
-        <v>864888.0296918773</v>
+        <v>1191752.398430249</v>
       </c>
       <c r="AF2" t="n">
         <v>5.946021454964042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.52083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>782344.3300160574</v>
+        <v>1078013.222159062</v>
       </c>
     </row>
     <row r="3">
@@ -14505,28 +14505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>580.9643334584775</v>
+        <v>810.6339616991285</v>
       </c>
       <c r="AB3" t="n">
-        <v>794.9010313753835</v>
+        <v>1109.145149043137</v>
       </c>
       <c r="AC3" t="n">
-        <v>719.0367925915207</v>
+        <v>1003.289892713453</v>
       </c>
       <c r="AD3" t="n">
-        <v>580964.3334584775</v>
+        <v>810633.9616991285</v>
       </c>
       <c r="AE3" t="n">
-        <v>794901.0313753835</v>
+        <v>1109145.149043137</v>
       </c>
       <c r="AF3" t="n">
         <v>6.287590366170726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.78645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>719036.7925915207</v>
+        <v>1003289.892713453</v>
       </c>
     </row>
     <row r="4">
@@ -14611,28 +14611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>582.5068474947672</v>
+        <v>812.1764757354182</v>
       </c>
       <c r="AB4" t="n">
-        <v>797.0115671307515</v>
+        <v>1111.255684798505</v>
       </c>
       <c r="AC4" t="n">
-        <v>720.945901776552</v>
+        <v>1005.199001898484</v>
       </c>
       <c r="AD4" t="n">
-        <v>582506.8474947672</v>
+        <v>812176.4757354181</v>
       </c>
       <c r="AE4" t="n">
-        <v>797011.5671307514</v>
+        <v>1111255.684798505</v>
       </c>
       <c r="AF4" t="n">
         <v>6.286898230585707e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.78645833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>720945.901776552</v>
+        <v>1005199.001898484</v>
       </c>
     </row>
   </sheetData>
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1043.087032235534</v>
+        <v>1359.370026448839</v>
       </c>
       <c r="AB2" t="n">
-        <v>1427.197695256751</v>
+        <v>1859.950041360316</v>
       </c>
       <c r="AC2" t="n">
-        <v>1290.987950305992</v>
+        <v>1682.439019869165</v>
       </c>
       <c r="AD2" t="n">
-        <v>1043087.032235534</v>
+        <v>1359370.026448839</v>
       </c>
       <c r="AE2" t="n">
-        <v>1427197.695256751</v>
+        <v>1859950.041360316</v>
       </c>
       <c r="AF2" t="n">
         <v>2.912745058282692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.11458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1290987.950305992</v>
+        <v>1682439.019869165</v>
       </c>
     </row>
     <row r="3">
@@ -15014,28 +15014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>848.109521241157</v>
+        <v>1116.450296536496</v>
       </c>
       <c r="AB3" t="n">
-        <v>1160.420862913543</v>
+        <v>1527.576550032123</v>
       </c>
       <c r="AC3" t="n">
-        <v>1049.671924417984</v>
+        <v>1381.78678806421</v>
       </c>
       <c r="AD3" t="n">
-        <v>848109.5212411571</v>
+        <v>1116450.296536496</v>
       </c>
       <c r="AE3" t="n">
-        <v>1160420.862913544</v>
+        <v>1527576.550032123</v>
       </c>
       <c r="AF3" t="n">
         <v>3.440724917074801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.27083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1049671.924417984</v>
+        <v>1381786.78806421</v>
       </c>
     </row>
     <row r="4">
@@ -15120,28 +15120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>790.3758350385749</v>
+        <v>1039.573888185509</v>
       </c>
       <c r="AB4" t="n">
-        <v>1081.427086420696</v>
+        <v>1422.390856578529</v>
       </c>
       <c r="AC4" t="n">
-        <v>978.2172030851522</v>
+        <v>1286.639869564779</v>
       </c>
       <c r="AD4" t="n">
-        <v>790375.8350385749</v>
+        <v>1039573.888185509</v>
       </c>
       <c r="AE4" t="n">
-        <v>1081427.086420696</v>
+        <v>1422390.856578529</v>
       </c>
       <c r="AF4" t="n">
         <v>3.63318694899087e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>978217.2030851522</v>
+        <v>1286639.869564779</v>
       </c>
     </row>
     <row r="5">
@@ -15226,28 +15226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>766.3951841054742</v>
+        <v>1006.038958887596</v>
       </c>
       <c r="AB5" t="n">
-        <v>1048.615701862375</v>
+        <v>1376.506886856459</v>
       </c>
       <c r="AC5" t="n">
-        <v>948.53729101801</v>
+        <v>1245.135001514427</v>
       </c>
       <c r="AD5" t="n">
-        <v>766395.1841054742</v>
+        <v>1006038.958887596</v>
       </c>
       <c r="AE5" t="n">
-        <v>1048615.701862375</v>
+        <v>1376506.886856459</v>
       </c>
       <c r="AF5" t="n">
         <v>3.72827065030261e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>948537.29101801</v>
+        <v>1245135.001514427</v>
       </c>
     </row>
     <row r="6">
@@ -15332,28 +15332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>745.9113907353732</v>
+        <v>985.5210000987141</v>
       </c>
       <c r="AB6" t="n">
-        <v>1020.588872092218</v>
+        <v>1348.433310453054</v>
       </c>
       <c r="AC6" t="n">
-        <v>923.1853025452141</v>
+        <v>1219.740727841451</v>
       </c>
       <c r="AD6" t="n">
-        <v>745911.3907353731</v>
+        <v>985521.0000987141</v>
       </c>
       <c r="AE6" t="n">
-        <v>1020588.872092218</v>
+        <v>1348433.310453054</v>
       </c>
       <c r="AF6" t="n">
         <v>3.794958314118535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.21875</v>
       </c>
       <c r="AH6" t="n">
-        <v>923185.3025452141</v>
+        <v>1219740.727841451</v>
       </c>
     </row>
     <row r="7">
@@ -15438,28 +15438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>728.0616033878198</v>
+        <v>967.7385325588654</v>
       </c>
       <c r="AB7" t="n">
-        <v>996.1660055662547</v>
+        <v>1324.102553857933</v>
       </c>
       <c r="AC7" t="n">
-        <v>901.0933201227805</v>
+        <v>1197.732064507337</v>
       </c>
       <c r="AD7" t="n">
-        <v>728061.6033878198</v>
+        <v>967738.5325588654</v>
       </c>
       <c r="AE7" t="n">
-        <v>996166.0055662547</v>
+        <v>1324102.553857933</v>
       </c>
       <c r="AF7" t="n">
         <v>3.834970912408091e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.69791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>901093.3201227805</v>
+        <v>1197732.064507337</v>
       </c>
     </row>
     <row r="8">
@@ -15544,28 +15544,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>721.5734874014399</v>
+        <v>961.1489313459999</v>
       </c>
       <c r="AB8" t="n">
-        <v>987.2886790382138</v>
+        <v>1315.086370765802</v>
       </c>
       <c r="AC8" t="n">
-        <v>893.0632331791697</v>
+        <v>1189.576373275227</v>
       </c>
       <c r="AD8" t="n">
-        <v>721573.4874014399</v>
+        <v>961148.9313459999</v>
       </c>
       <c r="AE8" t="n">
-        <v>987288.6790382138</v>
+        <v>1315086.370765802</v>
       </c>
       <c r="AF8" t="n">
         <v>3.860857199115133e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.359375</v>
       </c>
       <c r="AH8" t="n">
-        <v>893063.2331791697</v>
+        <v>1189576.373275227</v>
       </c>
     </row>
     <row r="9">
@@ -15650,28 +15650,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>704.169567252833</v>
+        <v>943.8123310050976</v>
       </c>
       <c r="AB9" t="n">
-        <v>963.4758676841219</v>
+        <v>1291.365669342552</v>
       </c>
       <c r="AC9" t="n">
-        <v>871.5230831192218</v>
+        <v>1168.119542303598</v>
       </c>
       <c r="AD9" t="n">
-        <v>704169.5672528329</v>
+        <v>943812.3310050976</v>
       </c>
       <c r="AE9" t="n">
-        <v>963475.8676841219</v>
+        <v>1291365.669342552</v>
       </c>
       <c r="AF9" t="n">
         <v>3.893842495196128e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>48</v>
+        <v>47.96875</v>
       </c>
       <c r="AH9" t="n">
-        <v>871523.0831192218</v>
+        <v>1168119.542303598</v>
       </c>
     </row>
     <row r="10">
@@ -15756,28 +15756,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>698.3024935594317</v>
+        <v>937.9452573116964</v>
       </c>
       <c r="AB10" t="n">
-        <v>955.4482786197869</v>
+        <v>1283.338080278217</v>
       </c>
       <c r="AC10" t="n">
-        <v>864.2616358883949</v>
+        <v>1160.858095072771</v>
       </c>
       <c r="AD10" t="n">
-        <v>698302.4935594318</v>
+        <v>937945.2573116964</v>
       </c>
       <c r="AE10" t="n">
-        <v>955448.278619787</v>
+        <v>1283338.080278217</v>
       </c>
       <c r="AF10" t="n">
         <v>3.908112221109429e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>48</v>
+        <v>47.78645833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>864261.6358883949</v>
+        <v>1160858.095072771</v>
       </c>
     </row>
     <row r="11">
@@ -15862,28 +15862,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>692.962491106176</v>
+        <v>932.6052548584407</v>
       </c>
       <c r="AB11" t="n">
-        <v>948.141851678961</v>
+        <v>1276.031653337391</v>
       </c>
       <c r="AC11" t="n">
-        <v>857.6525240801668</v>
+        <v>1154.248983264543</v>
       </c>
       <c r="AD11" t="n">
-        <v>692962.4911061761</v>
+        <v>932605.2548584407</v>
       </c>
       <c r="AE11" t="n">
-        <v>948141.851678961</v>
+        <v>1276031.653337391</v>
       </c>
       <c r="AF11" t="n">
         <v>3.922023411195761e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>48</v>
+        <v>47.60416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>857652.5240801668</v>
+        <v>1154248.983264543</v>
       </c>
     </row>
     <row r="12">
@@ -15968,28 +15968,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>692.9144025134971</v>
+        <v>932.5571662657617</v>
       </c>
       <c r="AB12" t="n">
-        <v>948.0760547449386</v>
+        <v>1275.965856403368</v>
       </c>
       <c r="AC12" t="n">
-        <v>857.5930067131809</v>
+        <v>1154.189465897557</v>
       </c>
       <c r="AD12" t="n">
-        <v>692914.402513497</v>
+        <v>932557.1662657617</v>
       </c>
       <c r="AE12" t="n">
-        <v>948076.0547449386</v>
+        <v>1275965.856403369</v>
       </c>
       <c r="AF12" t="n">
         <v>3.919370246076203e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>48</v>
+        <v>47.65625</v>
       </c>
       <c r="AH12" t="n">
-        <v>857593.0067131809</v>
+        <v>1154189.465897557</v>
       </c>
     </row>
     <row r="13">
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>693.5154590096968</v>
+        <v>933.1582227619614</v>
       </c>
       <c r="AB13" t="n">
-        <v>948.8984467597802</v>
+        <v>1276.78824841821</v>
       </c>
       <c r="AC13" t="n">
-        <v>858.3369107883605</v>
+        <v>1154.933369972737</v>
       </c>
       <c r="AD13" t="n">
-        <v>693515.4590096967</v>
+        <v>933158.2227619614</v>
       </c>
       <c r="AE13" t="n">
-        <v>948898.4467597802</v>
+        <v>1276788.24841821</v>
       </c>
       <c r="AF13" t="n">
         <v>3.920015610564745e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>48</v>
+        <v>47.63020833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>858336.9107883604</v>
+        <v>1154933.369972737</v>
       </c>
     </row>
   </sheetData>
@@ -16371,28 +16371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1140.272747471425</v>
+        <v>1477.992581803911</v>
       </c>
       <c r="AB2" t="n">
-        <v>1560.171478373653</v>
+        <v>2022.254654854923</v>
       </c>
       <c r="AC2" t="n">
-        <v>1411.270902192094</v>
+        <v>1829.253508847802</v>
       </c>
       <c r="AD2" t="n">
-        <v>1140272.747471425</v>
+        <v>1477992.581803911</v>
       </c>
       <c r="AE2" t="n">
-        <v>1560171.478373653</v>
+        <v>2022254.654854923</v>
       </c>
       <c r="AF2" t="n">
         <v>2.606153107208148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1411270.902192094</v>
+        <v>1829253.508847802</v>
       </c>
     </row>
     <row r="3">
@@ -16477,28 +16477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>898.2728031535179</v>
+        <v>1178.086094885425</v>
       </c>
       <c r="AB3" t="n">
-        <v>1229.056478273845</v>
+        <v>1611.90936851264</v>
       </c>
       <c r="AC3" t="n">
-        <v>1111.757052978989</v>
+        <v>1458.0710007108</v>
       </c>
       <c r="AD3" t="n">
-        <v>898272.8031535179</v>
+        <v>1178086.094885425</v>
       </c>
       <c r="AE3" t="n">
-        <v>1229056.478273845</v>
+        <v>1611909.36851264</v>
       </c>
       <c r="AF3" t="n">
         <v>3.15629887012597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1111757.052978989</v>
+        <v>1458071.000710801</v>
       </c>
     </row>
     <row r="4">
@@ -16583,28 +16583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>835.3515844611571</v>
+        <v>1095.896860744985</v>
       </c>
       <c r="AB4" t="n">
-        <v>1142.9648909707</v>
+        <v>1499.454432428585</v>
       </c>
       <c r="AC4" t="n">
-        <v>1033.881925937755</v>
+        <v>1356.348605895114</v>
       </c>
       <c r="AD4" t="n">
-        <v>835351.5844611571</v>
+        <v>1095896.860744985</v>
       </c>
       <c r="AE4" t="n">
-        <v>1142964.8909707</v>
+        <v>1499454.432428585</v>
       </c>
       <c r="AF4" t="n">
         <v>3.353669077393239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.55208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1033881.925937755</v>
+        <v>1356348.605895114</v>
       </c>
     </row>
     <row r="5">
@@ -16689,28 +16689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>809.4240683743496</v>
+        <v>1060.250934417043</v>
       </c>
       <c r="AB5" t="n">
-        <v>1107.489719619449</v>
+        <v>1450.682103439413</v>
       </c>
       <c r="AC5" t="n">
-        <v>1001.792455150552</v>
+        <v>1312.231039532275</v>
       </c>
       <c r="AD5" t="n">
-        <v>809424.0683743496</v>
+        <v>1060250.934417043</v>
       </c>
       <c r="AE5" t="n">
-        <v>1107489.719619449</v>
+        <v>1450682.103439413</v>
       </c>
       <c r="AF5" t="n">
         <v>3.452421866283139e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.04166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1001792.455150552</v>
+        <v>1312231.039532275</v>
       </c>
     </row>
     <row r="6">
@@ -16795,28 +16795,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>787.4402063829452</v>
+        <v>1028.650147410989</v>
       </c>
       <c r="AB6" t="n">
-        <v>1077.410429783268</v>
+        <v>1407.444512529401</v>
       </c>
       <c r="AC6" t="n">
-        <v>974.5838905197871</v>
+        <v>1273.119983614374</v>
       </c>
       <c r="AD6" t="n">
-        <v>787440.2063829452</v>
+        <v>1028650.147410989</v>
       </c>
       <c r="AE6" t="n">
-        <v>1077410.429783267</v>
+        <v>1407444.512529401</v>
       </c>
       <c r="AF6" t="n">
         <v>3.521934624466777e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.05208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>974583.8905197871</v>
+        <v>1273119.983614374</v>
       </c>
     </row>
     <row r="7">
@@ -16901,28 +16901,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>768.9004100041619</v>
+        <v>1010.076185613425</v>
       </c>
       <c r="AB7" t="n">
-        <v>1052.043462459726</v>
+        <v>1382.030798572611</v>
       </c>
       <c r="AC7" t="n">
-        <v>951.6379109548419</v>
+        <v>1250.131718849249</v>
       </c>
       <c r="AD7" t="n">
-        <v>768900.4100041619</v>
+        <v>1010076.185613425</v>
       </c>
       <c r="AE7" t="n">
-        <v>1052043.462459726</v>
+        <v>1382030.798572611</v>
       </c>
       <c r="AF7" t="n">
         <v>3.568840507058072e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.40104166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>951637.9109548419</v>
+        <v>1250131.718849249</v>
       </c>
     </row>
     <row r="8">
@@ -17007,28 +17007,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>750.8463435634503</v>
+        <v>1001.672198576287</v>
       </c>
       <c r="AB8" t="n">
-        <v>1027.341092266346</v>
+        <v>1370.532092750657</v>
       </c>
       <c r="AC8" t="n">
-        <v>929.2931003027242</v>
+        <v>1239.730433372406</v>
       </c>
       <c r="AD8" t="n">
-        <v>750846.3435634503</v>
+        <v>1001672.198576287</v>
       </c>
       <c r="AE8" t="n">
-        <v>1027341.092266346</v>
+        <v>1370532.092750657</v>
       </c>
       <c r="AF8" t="n">
         <v>3.605661286465958e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.88020833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>929293.1003027242</v>
+        <v>1239730.433372407</v>
       </c>
     </row>
     <row r="9">
@@ -17113,28 +17113,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>746.4557528081916</v>
+        <v>987.6988482251596</v>
       </c>
       <c r="AB9" t="n">
-        <v>1021.333692295808</v>
+        <v>1351.413138339535</v>
       </c>
       <c r="AC9" t="n">
-        <v>923.8590381539351</v>
+        <v>1222.436165136661</v>
       </c>
       <c r="AD9" t="n">
-        <v>746455.7528081916</v>
+        <v>987698.8482251596</v>
       </c>
       <c r="AE9" t="n">
-        <v>1021333.692295808</v>
+        <v>1351413.138339535</v>
       </c>
       <c r="AF9" t="n">
         <v>3.626237604370364e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>49</v>
+        <v>48.61979166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>923859.0381539351</v>
+        <v>1222436.165136661</v>
       </c>
     </row>
     <row r="10">
@@ -17219,28 +17219,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>740.6986730834851</v>
+        <v>981.8402832739678</v>
       </c>
       <c r="AB10" t="n">
-        <v>1013.456601832032</v>
+        <v>1343.39719131167</v>
       </c>
       <c r="AC10" t="n">
-        <v>916.7337261484563</v>
+        <v>1215.185248842684</v>
       </c>
       <c r="AD10" t="n">
-        <v>740698.6730834851</v>
+        <v>981840.2832739678</v>
       </c>
       <c r="AE10" t="n">
-        <v>1013456.601832032</v>
+        <v>1343397.19131167</v>
       </c>
       <c r="AF10" t="n">
         <v>3.647423089581152e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>49</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>916733.7261484563</v>
+        <v>1215185.248842684</v>
       </c>
     </row>
     <row r="11">
@@ -17325,28 +17325,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>734.0337687406171</v>
+        <v>965.5926193352313</v>
       </c>
       <c r="AB11" t="n">
-        <v>1004.337385675292</v>
+        <v>1321.166420714347</v>
       </c>
       <c r="AC11" t="n">
-        <v>908.4848351828156</v>
+        <v>1195.076151790086</v>
       </c>
       <c r="AD11" t="n">
-        <v>734033.7687406171</v>
+        <v>965592.6193352314</v>
       </c>
       <c r="AE11" t="n">
-        <v>1004337.385675292</v>
+        <v>1321166.420714347</v>
       </c>
       <c r="AF11" t="n">
         <v>3.665698108772565e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>49</v>
+        <v>48.07291666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>908484.8351828156</v>
+        <v>1195076.151790086</v>
       </c>
     </row>
     <row r="12">
@@ -17431,28 +17431,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>719.7559752168613</v>
+        <v>960.9649052150485</v>
       </c>
       <c r="AB12" t="n">
-        <v>984.8018786842948</v>
+        <v>1314.834578094774</v>
       </c>
       <c r="AC12" t="n">
-        <v>890.8137695607827</v>
+        <v>1189.348611343329</v>
       </c>
       <c r="AD12" t="n">
-        <v>719755.9752168613</v>
+        <v>960964.9052150485</v>
       </c>
       <c r="AE12" t="n">
-        <v>984801.8786842949</v>
+        <v>1314834.578094774</v>
       </c>
       <c r="AF12" t="n">
         <v>3.676663120287415e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>48</v>
+        <v>47.94270833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>890813.7695607827</v>
+        <v>1189348.611343329</v>
       </c>
     </row>
     <row r="13">
@@ -17537,28 +17537,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>715.1065337817032</v>
+        <v>956.3154637798905</v>
       </c>
       <c r="AB13" t="n">
-        <v>978.4403077938319</v>
+        <v>1308.473007204311</v>
       </c>
       <c r="AC13" t="n">
-        <v>885.0593380675848</v>
+        <v>1183.594179850131</v>
       </c>
       <c r="AD13" t="n">
-        <v>715106.5337817032</v>
+        <v>956315.4637798904</v>
       </c>
       <c r="AE13" t="n">
-        <v>978440.3077938319</v>
+        <v>1308473.007204311</v>
       </c>
       <c r="AF13" t="n">
         <v>3.688101928596114e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>48</v>
+        <v>47.78645833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>885059.3380675848</v>
+        <v>1183594.179850131</v>
       </c>
     </row>
     <row r="14">
@@ -17643,28 +17643,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>712.8629844883699</v>
+        <v>954.0719144865571</v>
       </c>
       <c r="AB14" t="n">
-        <v>975.3705846722841</v>
+        <v>1305.403284082764</v>
       </c>
       <c r="AC14" t="n">
-        <v>882.2825850123739</v>
+        <v>1180.81742679492</v>
       </c>
       <c r="AD14" t="n">
-        <v>712862.9844883699</v>
+        <v>954071.9144865571</v>
       </c>
       <c r="AE14" t="n">
-        <v>975370.5846722841</v>
+        <v>1305403.284082764</v>
       </c>
       <c r="AF14" t="n">
         <v>3.683431645913864e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>882282.585012374</v>
+        <v>1180817.42679492</v>
       </c>
     </row>
     <row r="15">
@@ -17749,28 +17749,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>710.9316641934438</v>
+        <v>952.1405941916311</v>
       </c>
       <c r="AB15" t="n">
-        <v>972.7280670409283</v>
+        <v>1302.760766451408</v>
       </c>
       <c r="AC15" t="n">
-        <v>879.892265554958</v>
+        <v>1178.427107337504</v>
       </c>
       <c r="AD15" t="n">
-        <v>710931.6641934438</v>
+        <v>952140.5941916311</v>
       </c>
       <c r="AE15" t="n">
-        <v>972728.0670409283</v>
+        <v>1302760.766451407</v>
       </c>
       <c r="AF15" t="n">
         <v>3.697780920241937e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>48</v>
+        <v>47.65625</v>
       </c>
       <c r="AH15" t="n">
-        <v>879892.265554958</v>
+        <v>1178427.107337504</v>
       </c>
     </row>
   </sheetData>
@@ -18046,28 +18046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1369.779670222422</v>
+        <v>1750.360418252451</v>
       </c>
       <c r="AB2" t="n">
-        <v>1874.192975212403</v>
+        <v>2394.920344704711</v>
       </c>
       <c r="AC2" t="n">
-        <v>1695.322628104493</v>
+        <v>2166.352508297908</v>
       </c>
       <c r="AD2" t="n">
-        <v>1369779.670222422</v>
+        <v>1750360.418252451</v>
       </c>
       <c r="AE2" t="n">
-        <v>1874192.975212403</v>
+        <v>2394920.344704711</v>
       </c>
       <c r="AF2" t="n">
         <v>2.128797577243542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1695322.628104493</v>
+        <v>2166352.508297908</v>
       </c>
     </row>
     <row r="3">
@@ -18152,28 +18152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1023.116368127632</v>
+        <v>1315.899932204282</v>
       </c>
       <c r="AB3" t="n">
-        <v>1399.872951580799</v>
+        <v>1800.472340649704</v>
       </c>
       <c r="AC3" t="n">
-        <v>1266.271041815954</v>
+        <v>1628.637787436896</v>
       </c>
       <c r="AD3" t="n">
-        <v>1023116.368127631</v>
+        <v>1315899.932204282</v>
       </c>
       <c r="AE3" t="n">
-        <v>1399872.951580799</v>
+        <v>1800472.340649704</v>
       </c>
       <c r="AF3" t="n">
         <v>2.698130023692311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1266271.041815954</v>
+        <v>1628637.787436896</v>
       </c>
     </row>
     <row r="4">
@@ -18258,28 +18258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>936.5629048663008</v>
+        <v>1209.820798989409</v>
       </c>
       <c r="AB4" t="n">
-        <v>1281.446684677341</v>
+        <v>1655.330190704046</v>
       </c>
       <c r="AC4" t="n">
-        <v>1159.147211613453</v>
+        <v>1497.347800573766</v>
       </c>
       <c r="AD4" t="n">
-        <v>936562.9048663008</v>
+        <v>1209820.798989409</v>
       </c>
       <c r="AE4" t="n">
-        <v>1281446.684677341</v>
+        <v>1655330.190704046</v>
       </c>
       <c r="AF4" t="n">
         <v>2.909483849862366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1159147.211613453</v>
+        <v>1497347.800573766</v>
       </c>
     </row>
     <row r="5">
@@ -18364,28 +18364,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>881.078857213438</v>
+        <v>1144.641236167479</v>
       </c>
       <c r="AB5" t="n">
-        <v>1205.530962895268</v>
+        <v>1566.148637331715</v>
       </c>
       <c r="AC5" t="n">
-        <v>1090.476779769876</v>
+        <v>1416.677609488193</v>
       </c>
       <c r="AD5" t="n">
-        <v>881078.857213438</v>
+        <v>1144641.236167479</v>
       </c>
       <c r="AE5" t="n">
-        <v>1205530.962895268</v>
+        <v>1566148.637331715</v>
       </c>
       <c r="AF5" t="n">
         <v>3.03691144054597e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.76041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1090476.779769876</v>
+        <v>1416677.609488193</v>
       </c>
     </row>
     <row r="6">
@@ -18470,28 +18470,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>858.8302550889169</v>
+        <v>1122.358468624178</v>
       </c>
       <c r="AB6" t="n">
-        <v>1175.089443929446</v>
+        <v>1535.660371732645</v>
       </c>
       <c r="AC6" t="n">
-        <v>1062.940556649212</v>
+        <v>1389.09910116735</v>
       </c>
       <c r="AD6" t="n">
-        <v>858830.255088917</v>
+        <v>1122358.468624178</v>
       </c>
       <c r="AE6" t="n">
-        <v>1175089.443929446</v>
+        <v>1535660.371732645</v>
       </c>
       <c r="AF6" t="n">
         <v>3.101271295618424e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.66666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1062940.556649212</v>
+        <v>1389099.10116735</v>
       </c>
     </row>
     <row r="7">
@@ -18576,28 +18576,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>839.0221608765474</v>
+        <v>1102.516208993027</v>
       </c>
       <c r="AB7" t="n">
-        <v>1147.98713555664</v>
+        <v>1508.511316726592</v>
       </c>
       <c r="AC7" t="n">
-        <v>1038.424854549178</v>
+        <v>1364.541113867135</v>
       </c>
       <c r="AD7" t="n">
-        <v>839022.1608765475</v>
+        <v>1102516.208993027</v>
       </c>
       <c r="AE7" t="n">
-        <v>1147987.13555664</v>
+        <v>1508511.316726591</v>
       </c>
       <c r="AF7" t="n">
         <v>3.148833597693957e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.88541666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1038424.854549178</v>
+        <v>1364541.113867135</v>
       </c>
     </row>
     <row r="8">
@@ -18682,28 +18682,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>830.7839467305646</v>
+        <v>1084.482005481349</v>
       </c>
       <c r="AB8" t="n">
-        <v>1136.715247517749</v>
+        <v>1483.836123869007</v>
       </c>
       <c r="AC8" t="n">
-        <v>1028.228739684524</v>
+        <v>1342.220886784028</v>
       </c>
       <c r="AD8" t="n">
-        <v>830783.9467305646</v>
+        <v>1084482.00548135</v>
       </c>
       <c r="AE8" t="n">
-        <v>1136715.247517749</v>
+        <v>1483836.123869007</v>
       </c>
       <c r="AF8" t="n">
         <v>3.186735768558804e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.28645833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1028228.739684524</v>
+        <v>1342220.886784028</v>
       </c>
     </row>
     <row r="9">
@@ -18788,28 +18788,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>814.4381603592259</v>
+        <v>1068.203538917715</v>
       </c>
       <c r="AB9" t="n">
-        <v>1114.350221479283</v>
+        <v>1461.563207761382</v>
       </c>
       <c r="AC9" t="n">
-        <v>1007.998200341658</v>
+        <v>1322.073666529481</v>
       </c>
       <c r="AD9" t="n">
-        <v>814438.1603592259</v>
+        <v>1068203.538917715</v>
       </c>
       <c r="AE9" t="n">
-        <v>1114350.221479283</v>
+        <v>1461563.207761382</v>
       </c>
       <c r="AF9" t="n">
         <v>3.216946752154e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.81770833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1007998.200341658</v>
+        <v>1322073.666529481</v>
       </c>
     </row>
     <row r="10">
@@ -18894,28 +18894,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>809.6161904941723</v>
+        <v>1063.381569052662</v>
       </c>
       <c r="AB10" t="n">
-        <v>1107.75258957962</v>
+        <v>1454.965575861719</v>
       </c>
       <c r="AC10" t="n">
-        <v>1002.030237170664</v>
+        <v>1316.105703358487</v>
       </c>
       <c r="AD10" t="n">
-        <v>809616.1904941723</v>
+        <v>1063381.569052662</v>
       </c>
       <c r="AE10" t="n">
-        <v>1107752.58957962</v>
+        <v>1454965.575861719</v>
       </c>
       <c r="AF10" t="n">
         <v>3.234851836117751e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.53125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1002030.237170664</v>
+        <v>1316105.703358487</v>
       </c>
     </row>
     <row r="11">
@@ -19000,28 +19000,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>804.4389619140451</v>
+        <v>1048.40835110684</v>
       </c>
       <c r="AB11" t="n">
-        <v>1100.668877033085</v>
+        <v>1434.478558496491</v>
       </c>
       <c r="AC11" t="n">
-        <v>995.6225842075173</v>
+        <v>1297.573938176886</v>
       </c>
       <c r="AD11" t="n">
-        <v>804438.961914045</v>
+        <v>1048408.351106839</v>
       </c>
       <c r="AE11" t="n">
-        <v>1100668.877033085</v>
+        <v>1434478.558496491</v>
       </c>
       <c r="AF11" t="n">
         <v>3.254356687033591e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>49.24479166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>995622.5842075173</v>
+        <v>1297573.938176886</v>
       </c>
     </row>
     <row r="12">
@@ -19106,28 +19106,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>800.0703515247592</v>
+        <v>1044.039740717554</v>
       </c>
       <c r="AB12" t="n">
-        <v>1094.691551568976</v>
+        <v>1428.501233032382</v>
       </c>
       <c r="AC12" t="n">
-        <v>990.215726296474</v>
+        <v>1292.167080265843</v>
       </c>
       <c r="AD12" t="n">
-        <v>800070.3515247592</v>
+        <v>1044039.740717554</v>
       </c>
       <c r="AE12" t="n">
-        <v>1094691.551568976</v>
+        <v>1428501.233032382</v>
       </c>
       <c r="AF12" t="n">
         <v>3.264632113225846e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>50</v>
+        <v>49.08854166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>990215.726296474</v>
+        <v>1292167.080265843</v>
       </c>
     </row>
     <row r="13">
@@ -19212,28 +19212,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>785.0268452976239</v>
+        <v>1029.063554298123</v>
       </c>
       <c r="AB13" t="n">
-        <v>1074.108362676354</v>
+        <v>1408.010154070601</v>
       </c>
       <c r="AC13" t="n">
-        <v>971.5969680630772</v>
+        <v>1273.631641120765</v>
       </c>
       <c r="AD13" t="n">
-        <v>785026.8452976239</v>
+        <v>1029063.554298123</v>
       </c>
       <c r="AE13" t="n">
-        <v>1074108.362676354</v>
+        <v>1408010.154070601</v>
       </c>
       <c r="AF13" t="n">
         <v>3.281552725219083e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.828125</v>
       </c>
       <c r="AH13" t="n">
-        <v>971596.9680630772</v>
+        <v>1273631.641120765</v>
       </c>
     </row>
     <row r="14">
@@ -19318,28 +19318,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>783.075707806023</v>
+        <v>1027.112416806522</v>
       </c>
       <c r="AB14" t="n">
-        <v>1071.438730282234</v>
+        <v>1405.340521676482</v>
       </c>
       <c r="AC14" t="n">
-        <v>969.1821216378</v>
+        <v>1271.216794695488</v>
       </c>
       <c r="AD14" t="n">
-        <v>783075.7078060231</v>
+        <v>1027112.416806522</v>
       </c>
       <c r="AE14" t="n">
-        <v>1071438.730282234</v>
+        <v>1405340.521676482</v>
       </c>
       <c r="AF14" t="n">
         <v>3.283090962673013e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>49</v>
+        <v>48.80208333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>969182.1216378</v>
+        <v>1271216.794695488</v>
       </c>
     </row>
     <row r="15">
@@ -19424,28 +19424,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>778.9729422853293</v>
+        <v>1023.009651285828</v>
       </c>
       <c r="AB15" t="n">
-        <v>1065.825145495581</v>
+        <v>1399.726936889829</v>
       </c>
       <c r="AC15" t="n">
-        <v>964.1042895044691</v>
+        <v>1266.138962562157</v>
       </c>
       <c r="AD15" t="n">
-        <v>778972.9422853293</v>
+        <v>1023009.651285828</v>
       </c>
       <c r="AE15" t="n">
-        <v>1065825.145495581</v>
+        <v>1399726.936889829</v>
       </c>
       <c r="AF15" t="n">
         <v>3.294535449330256e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>49</v>
+        <v>48.64583333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>964104.289504469</v>
+        <v>1266138.962562157</v>
       </c>
     </row>
     <row r="16">
@@ -19530,28 +19530,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>772.2830873578349</v>
+        <v>1016.218311131849</v>
       </c>
       <c r="AB16" t="n">
-        <v>1056.671790848214</v>
+        <v>1390.434725678372</v>
       </c>
       <c r="AC16" t="n">
-        <v>955.8245181778321</v>
+        <v>1257.733586947021</v>
       </c>
       <c r="AD16" t="n">
-        <v>772283.0873578349</v>
+        <v>1016218.311131849</v>
       </c>
       <c r="AE16" t="n">
-        <v>1056671.790848213</v>
+        <v>1390434.725678372</v>
       </c>
       <c r="AF16" t="n">
         <v>3.31305582827558e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>49</v>
+        <v>48.359375</v>
       </c>
       <c r="AH16" t="n">
-        <v>955824.5181778321</v>
+        <v>1257733.586947021</v>
       </c>
     </row>
     <row r="17">
@@ -19636,28 +19636,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>770.4846231676333</v>
+        <v>1014.419846941647</v>
       </c>
       <c r="AB17" t="n">
-        <v>1054.211052800539</v>
+        <v>1387.973987630698</v>
       </c>
       <c r="AC17" t="n">
-        <v>953.5986295157605</v>
+        <v>1255.50769828495</v>
       </c>
       <c r="AD17" t="n">
-        <v>770484.6231676333</v>
+        <v>1014419.846941647</v>
       </c>
       <c r="AE17" t="n">
-        <v>1054211.052800539</v>
+        <v>1387973.987630698</v>
       </c>
       <c r="AF17" t="n">
         <v>3.31570159669634e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>49</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>953598.6295157606</v>
+        <v>1255507.69828495</v>
       </c>
     </row>
     <row r="18">
@@ -19742,28 +19742,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>768.4249714524907</v>
+        <v>1012.360195226505</v>
       </c>
       <c r="AB18" t="n">
-        <v>1051.39294645846</v>
+        <v>1385.155881288619</v>
       </c>
       <c r="AC18" t="n">
-        <v>951.0494792877325</v>
+        <v>1252.958548056922</v>
       </c>
       <c r="AD18" t="n">
-        <v>768424.9714524907</v>
+        <v>1012360.195226504</v>
       </c>
       <c r="AE18" t="n">
-        <v>1051392.94645846</v>
+        <v>1385155.881288619</v>
       </c>
       <c r="AF18" t="n">
         <v>3.313301946268209e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>49</v>
+        <v>48.359375</v>
       </c>
       <c r="AH18" t="n">
-        <v>951049.4792877325</v>
+        <v>1252958.548056922</v>
       </c>
     </row>
     <row r="19">
@@ -19848,28 +19848,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>762.8666330420515</v>
+        <v>997.1073526768555</v>
       </c>
       <c r="AB19" t="n">
-        <v>1043.787782628713</v>
+        <v>1364.286269204267</v>
       </c>
       <c r="AC19" t="n">
-        <v>944.170141619982</v>
+        <v>1234.080702459216</v>
       </c>
       <c r="AD19" t="n">
-        <v>762866.6330420515</v>
+        <v>997107.3526768555</v>
       </c>
       <c r="AE19" t="n">
-        <v>1043787.782628713</v>
+        <v>1364286.269204267</v>
       </c>
       <c r="AF19" t="n">
         <v>3.330960912239331e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>49</v>
+        <v>48.09895833333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>944170.141619982</v>
+        <v>1234080.702459216</v>
       </c>
     </row>
     <row r="20">
@@ -19954,28 +19954,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>763.224261598218</v>
+        <v>1007.159485372232</v>
       </c>
       <c r="AB20" t="n">
-        <v>1044.277105796719</v>
+        <v>1378.040040626877</v>
       </c>
       <c r="AC20" t="n">
-        <v>944.6127644716026</v>
+        <v>1246.521833240792</v>
       </c>
       <c r="AD20" t="n">
-        <v>763224.261598218</v>
+        <v>1007159.485372232</v>
       </c>
       <c r="AE20" t="n">
-        <v>1044277.105796719</v>
+        <v>1378040.040626877</v>
       </c>
       <c r="AF20" t="n">
         <v>3.322654429988106e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>49</v>
+        <v>48.22916666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>944612.7644716026</v>
+        <v>1246521.833240792</v>
       </c>
     </row>
     <row r="21">
@@ -20060,28 +20060,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>763.6156523131668</v>
+        <v>1007.550876087181</v>
       </c>
       <c r="AB21" t="n">
-        <v>1044.812623839852</v>
+        <v>1378.57555867001</v>
       </c>
       <c r="AC21" t="n">
-        <v>945.0971734243029</v>
+        <v>1247.006242193492</v>
       </c>
       <c r="AD21" t="n">
-        <v>763615.6523131669</v>
+        <v>1007550.876087181</v>
       </c>
       <c r="AE21" t="n">
-        <v>1044812.623839852</v>
+        <v>1378575.55867001</v>
       </c>
       <c r="AF21" t="n">
         <v>3.323392783965993e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>49</v>
+        <v>48.203125</v>
       </c>
       <c r="AH21" t="n">
-        <v>945097.1734243029</v>
+        <v>1247006.242193492</v>
       </c>
     </row>
     <row r="22">
@@ -20166,28 +20166,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>765.1848500216091</v>
+        <v>1009.120073795623</v>
       </c>
       <c r="AB22" t="n">
-        <v>1046.959669372659</v>
+        <v>1380.722604202818</v>
       </c>
       <c r="AC22" t="n">
-        <v>947.0393079448568</v>
+        <v>1248.948376714046</v>
       </c>
       <c r="AD22" t="n">
-        <v>765184.8500216091</v>
+        <v>1009120.073795623</v>
       </c>
       <c r="AE22" t="n">
-        <v>1046959.669372659</v>
+        <v>1380722.604202818</v>
       </c>
       <c r="AF22" t="n">
         <v>3.321854546512062e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>49</v>
+        <v>48.22916666666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>947039.3079448568</v>
+        <v>1248948.376714046</v>
       </c>
     </row>
   </sheetData>
@@ -20463,28 +20463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>941.4352736163237</v>
+        <v>1245.964521014575</v>
       </c>
       <c r="AB2" t="n">
-        <v>1288.113274554861</v>
+        <v>1704.783625727357</v>
       </c>
       <c r="AC2" t="n">
-        <v>1165.177551509679</v>
+        <v>1542.081469166784</v>
       </c>
       <c r="AD2" t="n">
-        <v>941435.2736163237</v>
+        <v>1245964.521014575</v>
       </c>
       <c r="AE2" t="n">
-        <v>1288113.274554861</v>
+        <v>1704783.625727357</v>
       </c>
       <c r="AF2" t="n">
         <v>3.281082810068395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.88541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1165177.55150968</v>
+        <v>1542081.469166784</v>
       </c>
     </row>
     <row r="3">
@@ -20569,28 +20569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>788.178521282158</v>
+        <v>1045.177389571941</v>
       </c>
       <c r="AB3" t="n">
-        <v>1078.420624800525</v>
+        <v>1430.05781438448</v>
       </c>
       <c r="AC3" t="n">
-        <v>975.4976739424152</v>
+        <v>1293.575103678372</v>
       </c>
       <c r="AD3" t="n">
-        <v>788178.5212821581</v>
+        <v>1045177.389571941</v>
       </c>
       <c r="AE3" t="n">
-        <v>1078420.624800525</v>
+        <v>1430057.81438448</v>
       </c>
       <c r="AF3" t="n">
         <v>3.78641942147063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.76041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>975497.6739424152</v>
+        <v>1293575.103678372</v>
       </c>
     </row>
     <row r="4">
@@ -20675,28 +20675,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>743.3318630176759</v>
+        <v>981.2580929401231</v>
       </c>
       <c r="AB4" t="n">
-        <v>1017.059448468133</v>
+        <v>1342.600612812479</v>
       </c>
       <c r="AC4" t="n">
-        <v>919.992722158235</v>
+        <v>1214.46469467745</v>
       </c>
       <c r="AD4" t="n">
-        <v>743331.8630176759</v>
+        <v>981258.0929401231</v>
       </c>
       <c r="AE4" t="n">
-        <v>1017059.448468133</v>
+        <v>1342600.612812479</v>
       </c>
       <c r="AF4" t="n">
         <v>3.983322742883734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>919992.722158235</v>
+        <v>1214464.69467745</v>
       </c>
     </row>
     <row r="5">
@@ -20781,28 +20781,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>721.6802980987206</v>
+        <v>959.572362602387</v>
       </c>
       <c r="AB5" t="n">
-        <v>987.4348221463887</v>
+        <v>1312.929239857487</v>
       </c>
       <c r="AC5" t="n">
-        <v>893.1954285942136</v>
+        <v>1187.625115913249</v>
       </c>
       <c r="AD5" t="n">
-        <v>721680.2980987206</v>
+        <v>959572.362602387</v>
       </c>
       <c r="AE5" t="n">
-        <v>987434.8221463887</v>
+        <v>1312929.239857487</v>
       </c>
       <c r="AF5" t="n">
         <v>4.069463151900844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.08854166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>893195.4285942136</v>
+        <v>1187625.115913249</v>
       </c>
     </row>
     <row r="6">
@@ -20887,28 +20887,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>703.8080002462576</v>
+        <v>941.7673845576286</v>
       </c>
       <c r="AB6" t="n">
-        <v>962.9811557545149</v>
+        <v>1288.567683396454</v>
       </c>
       <c r="AC6" t="n">
-        <v>871.075585801844</v>
+        <v>1165.588592209199</v>
       </c>
       <c r="AD6" t="n">
-        <v>703808.0002462576</v>
+        <v>941767.3845576285</v>
       </c>
       <c r="AE6" t="n">
-        <v>962981.155754515</v>
+        <v>1288567.683396454</v>
       </c>
       <c r="AF6" t="n">
         <v>4.116176873264529e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.54166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>871075.585801844</v>
+        <v>1165588.592209199</v>
       </c>
     </row>
     <row r="7">
@@ -20993,28 +20993,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>695.5854391683931</v>
+        <v>923.9919271016342</v>
       </c>
       <c r="AB7" t="n">
-        <v>951.730684933988</v>
+        <v>1264.246518307326</v>
       </c>
       <c r="AC7" t="n">
-        <v>860.8988441262931</v>
+        <v>1143.588604981207</v>
       </c>
       <c r="AD7" t="n">
-        <v>695585.4391683931</v>
+        <v>923991.9271016342</v>
       </c>
       <c r="AE7" t="n">
-        <v>951730.6849339879</v>
+        <v>1264246.518307326</v>
       </c>
       <c r="AF7" t="n">
         <v>4.151768280017814e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>860898.8441262931</v>
+        <v>1143588.604981207</v>
       </c>
     </row>
     <row r="8">
@@ -21099,28 +21099,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>677.9731347905008</v>
+        <v>915.8983536830908</v>
       </c>
       <c r="AB8" t="n">
-        <v>927.6327530841244</v>
+        <v>1253.172534092816</v>
       </c>
       <c r="AC8" t="n">
-        <v>839.1007850705208</v>
+        <v>1133.571506277695</v>
       </c>
       <c r="AD8" t="n">
-        <v>677973.1347905009</v>
+        <v>915898.3536830908</v>
       </c>
       <c r="AE8" t="n">
-        <v>927632.7530841244</v>
+        <v>1253172.534092816</v>
       </c>
       <c r="AF8" t="n">
         <v>4.187052864299086e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>48</v>
+        <v>47.70833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>839100.7850705208</v>
+        <v>1133571.506277695</v>
       </c>
     </row>
     <row r="9">
@@ -21205,28 +21205,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>670.9040399051584</v>
+        <v>899.2763624196186</v>
       </c>
       <c r="AB9" t="n">
-        <v>917.9605055955429</v>
+        <v>1230.429592335634</v>
       </c>
       <c r="AC9" t="n">
-        <v>830.351643307165</v>
+        <v>1112.999118961899</v>
       </c>
       <c r="AD9" t="n">
-        <v>670904.0399051583</v>
+        <v>899276.3624196186</v>
       </c>
       <c r="AE9" t="n">
-        <v>917960.505595543</v>
+        <v>1230429.592335633</v>
       </c>
       <c r="AF9" t="n">
         <v>4.216354410376144e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>48</v>
+        <v>47.36979166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>830351.643307165</v>
+        <v>1112999.118961899</v>
       </c>
     </row>
     <row r="10">
@@ -21311,28 +21311,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>670.8387181807299</v>
+        <v>899.2110406951901</v>
       </c>
       <c r="AB10" t="n">
-        <v>917.8711295303889</v>
+        <v>1230.340216270479</v>
       </c>
       <c r="AC10" t="n">
-        <v>830.2707971682293</v>
+        <v>1112.918272822963</v>
       </c>
       <c r="AD10" t="n">
-        <v>670838.7181807299</v>
+        <v>899211.0406951902</v>
       </c>
       <c r="AE10" t="n">
-        <v>917871.1295303889</v>
+        <v>1230340.216270479</v>
       </c>
       <c r="AF10" t="n">
         <v>4.214360064308072e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>48</v>
+        <v>47.39583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>830270.7971682292</v>
+        <v>1112918.272822963</v>
       </c>
     </row>
   </sheetData>
@@ -21608,28 +21608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>812.7425527079438</v>
+        <v>1085.233969753435</v>
       </c>
       <c r="AB2" t="n">
-        <v>1112.030216285869</v>
+        <v>1484.864994560397</v>
       </c>
       <c r="AC2" t="n">
-        <v>1005.899613187756</v>
+        <v>1343.151563500661</v>
       </c>
       <c r="AD2" t="n">
-        <v>812742.5527079438</v>
+        <v>1085233.969753435</v>
       </c>
       <c r="AE2" t="n">
-        <v>1112030.216285869</v>
+        <v>1484864.994560397</v>
       </c>
       <c r="AF2" t="n">
         <v>4.032946777085793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1005899.613187756</v>
+        <v>1343151.563500661</v>
       </c>
     </row>
     <row r="3">
@@ -21714,28 +21714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>705.9893821172197</v>
+        <v>950.2779990567708</v>
       </c>
       <c r="AB3" t="n">
-        <v>965.9658186661416</v>
+        <v>1300.212281615994</v>
       </c>
       <c r="AC3" t="n">
-        <v>873.7753966741858</v>
+        <v>1176.121846317961</v>
       </c>
       <c r="AD3" t="n">
-        <v>705989.3821172197</v>
+        <v>950277.9990567708</v>
       </c>
       <c r="AE3" t="n">
-        <v>965965.8186661416</v>
+        <v>1300212.281615994</v>
       </c>
       <c r="AF3" t="n">
         <v>4.498263307628251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.49479166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>873775.3966741858</v>
+        <v>1176121.846317961</v>
       </c>
     </row>
     <row r="4">
@@ -21820,28 +21820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>668.8532925664524</v>
+        <v>903.8424613638421</v>
       </c>
       <c r="AB4" t="n">
-        <v>915.1545826141382</v>
+        <v>1236.677130353188</v>
       </c>
       <c r="AC4" t="n">
-        <v>827.8135136769679</v>
+        <v>1118.650400719533</v>
       </c>
       <c r="AD4" t="n">
-        <v>668853.2925664524</v>
+        <v>903842.461363842</v>
       </c>
       <c r="AE4" t="n">
-        <v>915154.5826141383</v>
+        <v>1236677.130353188</v>
       </c>
       <c r="AF4" t="n">
         <v>4.662759460693495e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.72395833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>827813.5136769679</v>
+        <v>1118650.400719533</v>
       </c>
     </row>
     <row r="5">
@@ -21926,28 +21926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>647.7649057346612</v>
+        <v>882.71990911327</v>
       </c>
       <c r="AB5" t="n">
-        <v>886.3005213969155</v>
+        <v>1207.776322502718</v>
       </c>
       <c r="AC5" t="n">
-        <v>801.7132435653875</v>
+        <v>1092.507845407773</v>
       </c>
       <c r="AD5" t="n">
-        <v>647764.9057346612</v>
+        <v>882719.90911327</v>
       </c>
       <c r="AE5" t="n">
-        <v>886300.5213969155</v>
+        <v>1207776.322502718</v>
       </c>
       <c r="AF5" t="n">
         <v>4.747188027059961e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.83854166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>801713.2435653876</v>
+        <v>1092507.845407773</v>
       </c>
     </row>
     <row r="6">
@@ -22032,28 +22032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>638.4988652795774</v>
+        <v>864.0197809006157</v>
       </c>
       <c r="AB6" t="n">
-        <v>873.6223160574161</v>
+        <v>1182.189982090733</v>
       </c>
       <c r="AC6" t="n">
-        <v>790.245028349517</v>
+        <v>1069.363429414053</v>
       </c>
       <c r="AD6" t="n">
-        <v>638498.8652795774</v>
+        <v>864019.7809006157</v>
       </c>
       <c r="AE6" t="n">
-        <v>873622.3160574161</v>
+        <v>1182189.982090733</v>
       </c>
       <c r="AF6" t="n">
         <v>4.7929783135707e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.39583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>790245.028349517</v>
+        <v>1069363.429414053</v>
       </c>
     </row>
     <row r="7">
@@ -22138,28 +22138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>637.4071569799411</v>
+        <v>862.9280726009794</v>
       </c>
       <c r="AB7" t="n">
-        <v>872.1285925990825</v>
+        <v>1180.696258632399</v>
       </c>
       <c r="AC7" t="n">
-        <v>788.8938637615928</v>
+        <v>1068.012264826129</v>
       </c>
       <c r="AD7" t="n">
-        <v>637407.1569799411</v>
+        <v>862928.0726009794</v>
       </c>
       <c r="AE7" t="n">
-        <v>872128.5925990825</v>
+        <v>1180696.258632399</v>
       </c>
       <c r="AF7" t="n">
         <v>4.804752958673461e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>788893.8637615928</v>
+        <v>1068012.264826129</v>
       </c>
     </row>
   </sheetData>
@@ -41288,28 +41288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>724.1595847070845</v>
+        <v>975.3192197572114</v>
       </c>
       <c r="AB2" t="n">
-        <v>990.8270914623579</v>
+        <v>1334.474784519026</v>
       </c>
       <c r="AC2" t="n">
-        <v>896.2639444877466</v>
+        <v>1207.114384031652</v>
       </c>
       <c r="AD2" t="n">
-        <v>724159.5847070845</v>
+        <v>975319.2197572114</v>
       </c>
       <c r="AE2" t="n">
-        <v>990827.0914623579</v>
+        <v>1334474.784519026</v>
       </c>
       <c r="AF2" t="n">
         <v>4.77894754768875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.38541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>896263.9444877466</v>
+        <v>1207114.384031652</v>
       </c>
     </row>
     <row r="3">
@@ -41394,28 +41394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>640.6463244712036</v>
+        <v>882.4989810738211</v>
       </c>
       <c r="AB3" t="n">
-        <v>876.5605644626122</v>
+        <v>1207.474039012487</v>
       </c>
       <c r="AC3" t="n">
-        <v>792.9028544507786</v>
+        <v>1092.234411429592</v>
       </c>
       <c r="AD3" t="n">
-        <v>640646.3244712036</v>
+        <v>882498.9810738212</v>
       </c>
       <c r="AE3" t="n">
-        <v>876560.5644626122</v>
+        <v>1207474.039012487</v>
       </c>
       <c r="AF3" t="n">
         <v>5.212871949424002e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.93229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>792902.8544507786</v>
+        <v>1092234.411429592</v>
       </c>
     </row>
     <row r="4">
@@ -41500,28 +41500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>615.7305004046075</v>
+        <v>848.3113550083536</v>
       </c>
       <c r="AB4" t="n">
-        <v>842.4696347661157</v>
+        <v>1160.697020778099</v>
       </c>
       <c r="AC4" t="n">
-        <v>762.0655152375954</v>
+        <v>1049.921726163537</v>
       </c>
       <c r="AD4" t="n">
-        <v>615730.5004046075</v>
+        <v>848311.3550083536</v>
       </c>
       <c r="AE4" t="n">
-        <v>842469.6347661157</v>
+        <v>1160697.020778099</v>
       </c>
       <c r="AF4" t="n">
         <v>5.356370651126518e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.63020833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>762065.5152375954</v>
+        <v>1049921.726163537</v>
       </c>
     </row>
     <row r="5">
@@ -41606,28 +41606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>612.6973062326969</v>
+        <v>835.9390390298668</v>
       </c>
       <c r="AB5" t="n">
-        <v>838.3194846850249</v>
+        <v>1143.768672228275</v>
       </c>
       <c r="AC5" t="n">
-        <v>758.3114496554717</v>
+        <v>1034.608995440222</v>
       </c>
       <c r="AD5" t="n">
-        <v>612697.3062326969</v>
+        <v>835939.0390298668</v>
       </c>
       <c r="AE5" t="n">
-        <v>838319.4846850249</v>
+        <v>1143768.672228275</v>
       </c>
       <c r="AF5" t="n">
         <v>5.38507039146702e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.36979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>758311.4496554717</v>
+        <v>1034608.995440222</v>
       </c>
     </row>
   </sheetData>
@@ -41903,28 +41903,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>575.8408218982247</v>
+        <v>812.7989273987951</v>
       </c>
       <c r="AB2" t="n">
-        <v>787.8908168252682</v>
+        <v>1112.107350624967</v>
       </c>
       <c r="AC2" t="n">
-        <v>712.6956230791704</v>
+        <v>1005.969385933789</v>
       </c>
       <c r="AD2" t="n">
-        <v>575840.8218982246</v>
+        <v>812798.927398795</v>
       </c>
       <c r="AE2" t="n">
-        <v>787890.8168252682</v>
+        <v>1112107.350624967</v>
       </c>
       <c r="AF2" t="n">
         <v>6.889968166564229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.95833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>712695.6230791705</v>
+        <v>1005969.385933789</v>
       </c>
     </row>
     <row r="3">
@@ -42009,28 +42009,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>572.9154948328621</v>
+        <v>800.7227304923197</v>
       </c>
       <c r="AB3" t="n">
-        <v>783.8882552781175</v>
+        <v>1095.584165253321</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.0750603884494</v>
+        <v>991.0231501835766</v>
       </c>
       <c r="AD3" t="n">
-        <v>572915.4948328622</v>
+        <v>800722.7304923197</v>
       </c>
       <c r="AE3" t="n">
-        <v>783888.2552781175</v>
+        <v>1095584.165253321</v>
       </c>
       <c r="AF3" t="n">
         <v>6.964459210783816e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>709075.0603884493</v>
+        <v>991023.1501835766</v>
       </c>
     </row>
   </sheetData>
@@ -42306,28 +42306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1085.045226407299</v>
+        <v>1412.071692105122</v>
       </c>
       <c r="AB2" t="n">
-        <v>1484.606747587445</v>
+        <v>1932.058785344638</v>
       </c>
       <c r="AC2" t="n">
-        <v>1342.917963256355</v>
+        <v>1747.665806532882</v>
       </c>
       <c r="AD2" t="n">
-        <v>1085045.226407299</v>
+        <v>1412071.692105122</v>
       </c>
       <c r="AE2" t="n">
-        <v>1484606.747587445</v>
+        <v>1932058.785344638</v>
       </c>
       <c r="AF2" t="n">
         <v>2.756393813341095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1342917.963256355</v>
+        <v>1747665.806532882</v>
       </c>
     </row>
     <row r="3">
@@ -42412,19 +42412,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>867.4399512616582</v>
+        <v>1146.330075579614</v>
       </c>
       <c r="AB3" t="n">
-        <v>1186.869610065979</v>
+        <v>1568.459381921735</v>
       </c>
       <c r="AC3" t="n">
-        <v>1073.596440263241</v>
+        <v>1418.767819857692</v>
       </c>
       <c r="AD3" t="n">
-        <v>867439.9512616582</v>
+        <v>1146330.075579614</v>
       </c>
       <c r="AE3" t="n">
-        <v>1186869.610065978</v>
+        <v>1568459.381921735</v>
       </c>
       <c r="AF3" t="n">
         <v>3.295757850441369e-06</v>
@@ -42433,7 +42433,7 @@
         <v>55</v>
       </c>
       <c r="AH3" t="n">
-        <v>1073596.440263241</v>
+        <v>1418767.819857692</v>
       </c>
     </row>
     <row r="4">
@@ -42518,28 +42518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>807.7717977223788</v>
+        <v>1067.455217074681</v>
       </c>
       <c r="AB4" t="n">
-        <v>1105.229010020385</v>
+        <v>1460.539320802113</v>
       </c>
       <c r="AC4" t="n">
-        <v>999.7475045026971</v>
+        <v>1321.14749790457</v>
       </c>
       <c r="AD4" t="n">
-        <v>807771.7977223787</v>
+        <v>1067455.217074681</v>
       </c>
       <c r="AE4" t="n">
-        <v>1105229.010020385</v>
+        <v>1460539.320802114</v>
       </c>
       <c r="AF4" t="n">
         <v>3.488189019806822e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>999747.5045026971</v>
+        <v>1321147.49790457</v>
       </c>
     </row>
     <row r="5">
@@ -42624,28 +42624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>782.8174950685441</v>
+        <v>1032.91464464741</v>
       </c>
       <c r="AB5" t="n">
-        <v>1071.085432223274</v>
+        <v>1413.279385784612</v>
       </c>
       <c r="AC5" t="n">
-        <v>968.8625418497295</v>
+        <v>1278.397984755404</v>
       </c>
       <c r="AD5" t="n">
-        <v>782817.4950685441</v>
+        <v>1032914.64464741</v>
       </c>
       <c r="AE5" t="n">
-        <v>1071085.432223274</v>
+        <v>1413279.385784612</v>
       </c>
       <c r="AF5" t="n">
         <v>3.587849574791028e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.52083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>968862.5418497295</v>
+        <v>1278397.984755404</v>
       </c>
     </row>
     <row r="6">
@@ -42730,28 +42730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>761.0679579831248</v>
+        <v>1011.13094214321</v>
       </c>
       <c r="AB6" t="n">
-        <v>1041.326756061146</v>
+        <v>1383.473962989237</v>
       </c>
       <c r="AC6" t="n">
-        <v>941.9439919739513</v>
+        <v>1251.437149679446</v>
       </c>
       <c r="AD6" t="n">
-        <v>761067.9579831248</v>
+        <v>1011130.94214321</v>
       </c>
       <c r="AE6" t="n">
-        <v>1041326.756061147</v>
+        <v>1383473.962989237</v>
       </c>
       <c r="AF6" t="n">
         <v>3.657444934416869e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.55729166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>941943.9919739512</v>
+        <v>1251437.149679446</v>
       </c>
     </row>
     <row r="7">
@@ -42836,28 +42836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>753.7102653486161</v>
+        <v>994.1196599275606</v>
       </c>
       <c r="AB7" t="n">
-        <v>1031.259636400122</v>
+        <v>1360.19837617698</v>
       </c>
       <c r="AC7" t="n">
-        <v>932.8376640840834</v>
+        <v>1230.38295220506</v>
       </c>
       <c r="AD7" t="n">
-        <v>753710.2653486161</v>
+        <v>994119.6599275606</v>
       </c>
       <c r="AE7" t="n">
-        <v>1031259.636400122</v>
+        <v>1360198.37617698</v>
       </c>
       <c r="AF7" t="n">
         <v>3.695513596132205e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.03645833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>932837.6640840834</v>
+        <v>1230382.95220506</v>
       </c>
     </row>
     <row r="8">
@@ -42942,28 +42942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>737.9435133596323</v>
+        <v>978.4202277462814</v>
       </c>
       <c r="AB8" t="n">
-        <v>1009.686870748788</v>
+        <v>1338.717720456488</v>
       </c>
       <c r="AC8" t="n">
-        <v>913.3237729089465</v>
+        <v>1210.952380118242</v>
       </c>
       <c r="AD8" t="n">
-        <v>737943.5133596323</v>
+        <v>978420.2277462814</v>
       </c>
       <c r="AE8" t="n">
-        <v>1009686.870748788</v>
+        <v>1338717.720456488</v>
       </c>
       <c r="AF8" t="n">
         <v>3.719732781281998e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.72395833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>913323.7729089465</v>
+        <v>1210952.380118242</v>
       </c>
     </row>
     <row r="9">
@@ -43048,28 +43048,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>730.6184742522287</v>
+        <v>970.9937034123923</v>
       </c>
       <c r="AB9" t="n">
-        <v>999.6644290841201</v>
+        <v>1328.556422227731</v>
       </c>
       <c r="AC9" t="n">
-        <v>904.2578590101692</v>
+        <v>1201.760861930965</v>
       </c>
       <c r="AD9" t="n">
-        <v>730618.4742522286</v>
+        <v>970993.7034123923</v>
       </c>
       <c r="AE9" t="n">
-        <v>999664.4290841201</v>
+        <v>1328556.422227731</v>
       </c>
       <c r="AF9" t="n">
         <v>3.753068958542776e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>49</v>
+        <v>48.28125</v>
       </c>
       <c r="AH9" t="n">
-        <v>904257.8590101693</v>
+        <v>1201760.861930965</v>
       </c>
     </row>
     <row r="10">
@@ -43154,28 +43154,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>723.7431058772686</v>
+        <v>954.5662306827768</v>
       </c>
       <c r="AB10" t="n">
-        <v>990.2572467536542</v>
+        <v>1306.079629310123</v>
       </c>
       <c r="AC10" t="n">
-        <v>895.7484849582596</v>
+        <v>1181.429222583037</v>
       </c>
       <c r="AD10" t="n">
-        <v>723743.1058772686</v>
+        <v>954566.2306827768</v>
       </c>
       <c r="AE10" t="n">
-        <v>990257.2467536542</v>
+        <v>1306079.629310123</v>
       </c>
       <c r="AF10" t="n">
         <v>3.77443473394791e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>49</v>
+        <v>48.02083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>895748.4849582596</v>
+        <v>1181429.222583037</v>
       </c>
     </row>
     <row r="11">
@@ -43260,28 +43260,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>709.6504584821232</v>
+        <v>950.0930074499917</v>
       </c>
       <c r="AB11" t="n">
-        <v>970.9750648638926</v>
+        <v>1299.959167938345</v>
       </c>
       <c r="AC11" t="n">
-        <v>878.3065674453446</v>
+        <v>1175.89288945446</v>
       </c>
       <c r="AD11" t="n">
-        <v>709650.4584821232</v>
+        <v>950093.0074499917</v>
       </c>
       <c r="AE11" t="n">
-        <v>970975.0648638926</v>
+        <v>1299959.167938345</v>
       </c>
       <c r="AF11" t="n">
         <v>3.784386870374406e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>48</v>
+        <v>47.890625</v>
       </c>
       <c r="AH11" t="n">
-        <v>878306.5674453446</v>
+        <v>1175892.88945446</v>
       </c>
     </row>
     <row r="12">
@@ -43366,28 +43366,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>705.1593893026975</v>
+        <v>945.6019382705658</v>
       </c>
       <c r="AB12" t="n">
-        <v>964.8301858806134</v>
+        <v>1293.814288955066</v>
       </c>
       <c r="AC12" t="n">
-        <v>872.7481470878378</v>
+        <v>1170.334469096953</v>
       </c>
       <c r="AD12" t="n">
-        <v>705159.3893026975</v>
+        <v>945601.9382705658</v>
       </c>
       <c r="AE12" t="n">
-        <v>964830.1858806134</v>
+        <v>1293814.288955066</v>
       </c>
       <c r="AF12" t="n">
         <v>3.792459932091003e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>48</v>
+        <v>47.78645833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>872748.1470878378</v>
+        <v>1170334.469096953</v>
       </c>
     </row>
     <row r="13">
@@ -43472,28 +43472,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>701.1383718280845</v>
+        <v>941.5809207959528</v>
       </c>
       <c r="AB13" t="n">
-        <v>959.3284523770769</v>
+        <v>1288.312555451529</v>
       </c>
       <c r="AC13" t="n">
-        <v>867.7714913081473</v>
+        <v>1165.357813317263</v>
       </c>
       <c r="AD13" t="n">
-        <v>701138.3718280845</v>
+        <v>941580.9207959528</v>
       </c>
       <c r="AE13" t="n">
-        <v>959328.452377077</v>
+        <v>1288312.555451529</v>
       </c>
       <c r="AF13" t="n">
         <v>3.807770911208688e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>48</v>
+        <v>47.60416666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>867771.4913081473</v>
+        <v>1165357.813317263</v>
       </c>
     </row>
     <row r="14">
@@ -43578,28 +43578,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>702.2043844340058</v>
+        <v>942.646933401874</v>
       </c>
       <c r="AB14" t="n">
-        <v>960.7870178536554</v>
+        <v>1289.771120928108</v>
       </c>
       <c r="AC14" t="n">
-        <v>869.0908533427506</v>
+        <v>1166.677175351866</v>
       </c>
       <c r="AD14" t="n">
-        <v>702204.3844340057</v>
+        <v>942646.933401874</v>
       </c>
       <c r="AE14" t="n">
-        <v>960787.0178536554</v>
+        <v>1289771.120928108</v>
       </c>
       <c r="AF14" t="n">
         <v>3.806935766893178e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>48</v>
+        <v>47.60416666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>869090.8533427506</v>
+        <v>1166677.175351866</v>
       </c>
     </row>
   </sheetData>
@@ -43875,28 +43875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1310.136027442405</v>
+        <v>1679.946705510835</v>
       </c>
       <c r="AB2" t="n">
-        <v>1792.585911868972</v>
+        <v>2298.577196497867</v>
       </c>
       <c r="AC2" t="n">
-        <v>1621.504028350326</v>
+        <v>2079.204214937467</v>
       </c>
       <c r="AD2" t="n">
-        <v>1310136.027442405</v>
+        <v>1679946.705510835</v>
       </c>
       <c r="AE2" t="n">
-        <v>1792585.911868972</v>
+        <v>2298577.196497867</v>
       </c>
       <c r="AF2" t="n">
         <v>2.234658766943187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1621504.028350326</v>
+        <v>2079204.214937467</v>
       </c>
     </row>
     <row r="3">
@@ -43981,28 +43981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>991.2687220562456</v>
+        <v>1283.222935199777</v>
       </c>
       <c r="AB3" t="n">
-        <v>1356.297597206945</v>
+        <v>1755.762231740776</v>
       </c>
       <c r="AC3" t="n">
-        <v>1226.854458105147</v>
+        <v>1588.194748571205</v>
       </c>
       <c r="AD3" t="n">
-        <v>991268.7220562455</v>
+        <v>1283222.935199777</v>
       </c>
       <c r="AE3" t="n">
-        <v>1356297.597206945</v>
+        <v>1755762.231740776</v>
       </c>
       <c r="AF3" t="n">
         <v>2.800759744008687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.46354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1226854.458105147</v>
+        <v>1588194.748571205</v>
       </c>
     </row>
     <row r="4">
@@ -44087,28 +44087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>908.6080048845791</v>
+        <v>1181.089560442191</v>
       </c>
       <c r="AB4" t="n">
-        <v>1243.197557239203</v>
+        <v>1616.018842590956</v>
       </c>
       <c r="AC4" t="n">
-        <v>1124.548527215023</v>
+        <v>1461.788272350765</v>
       </c>
       <c r="AD4" t="n">
-        <v>908608.0048845791</v>
+        <v>1181089.560442191</v>
       </c>
       <c r="AE4" t="n">
-        <v>1243197.557239203</v>
+        <v>1616018.842590956</v>
       </c>
       <c r="AF4" t="n">
         <v>3.0085984164372e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.42708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1124548.527215023</v>
+        <v>1461788.272350765</v>
       </c>
     </row>
     <row r="5">
@@ -44193,28 +44193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>865.4267538114062</v>
+        <v>1128.171980576058</v>
       </c>
       <c r="AB5" t="n">
-        <v>1184.115064498541</v>
+        <v>1543.614675259255</v>
       </c>
       <c r="AC5" t="n">
-        <v>1071.10478465873</v>
+        <v>1396.294257129314</v>
       </c>
       <c r="AD5" t="n">
-        <v>865426.7538114062</v>
+        <v>1128171.980576058</v>
       </c>
       <c r="AE5" t="n">
-        <v>1184115.06449854</v>
+        <v>1543614.675259255</v>
       </c>
       <c r="AF5" t="n">
         <v>3.13047174387032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.31770833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1071104.78465873</v>
+        <v>1396294.257129314</v>
       </c>
     </row>
     <row r="6">
@@ -44299,28 +44299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>843.5663312972445</v>
+        <v>1096.609394687717</v>
       </c>
       <c r="AB6" t="n">
-        <v>1154.204670000888</v>
+        <v>1500.42935280381</v>
       </c>
       <c r="AC6" t="n">
-        <v>1044.048996232431</v>
+        <v>1357.230481238037</v>
       </c>
       <c r="AD6" t="n">
-        <v>843566.3312972444</v>
+        <v>1096609.394687717</v>
       </c>
       <c r="AE6" t="n">
-        <v>1154204.670000887</v>
+        <v>1500429.35280381</v>
       </c>
       <c r="AF6" t="n">
         <v>3.194804258815666e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>1044048.996232431</v>
+        <v>1357230.481238037</v>
       </c>
     </row>
     <row r="7">
@@ -44405,28 +44405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>824.0584364255564</v>
+        <v>1077.067334397248</v>
       </c>
       <c r="AB7" t="n">
-        <v>1127.513107609863</v>
+        <v>1473.691043779537</v>
       </c>
       <c r="AC7" t="n">
-        <v>1019.904839094162</v>
+        <v>1333.044038899588</v>
       </c>
       <c r="AD7" t="n">
-        <v>824058.4364255563</v>
+        <v>1077067.334397248</v>
       </c>
       <c r="AE7" t="n">
-        <v>1127513.107609862</v>
+        <v>1473691.043779538</v>
       </c>
       <c r="AF7" t="n">
         <v>3.242975037357343e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.49479166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1019904.839094162</v>
+        <v>1333044.038899588</v>
       </c>
     </row>
     <row r="8">
@@ -44511,28 +44511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>806.534488338428</v>
+        <v>1059.610706117825</v>
       </c>
       <c r="AB8" t="n">
-        <v>1103.536068735026</v>
+        <v>1449.806114835543</v>
       </c>
       <c r="AC8" t="n">
-        <v>998.2161351575548</v>
+        <v>1311.438654051301</v>
       </c>
       <c r="AD8" t="n">
-        <v>806534.488338428</v>
+        <v>1059610.706117825</v>
       </c>
       <c r="AE8" t="n">
-        <v>1103536.068735027</v>
+        <v>1449806.114835543</v>
       </c>
       <c r="AF8" t="n">
         <v>3.281461351283591e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.89583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>998216.1351575549</v>
+        <v>1311438.654051301</v>
       </c>
     </row>
     <row r="9">
@@ -44617,28 +44617,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>795.5874450098534</v>
+        <v>1038.894179607366</v>
       </c>
       <c r="AB9" t="n">
-        <v>1088.557841103404</v>
+        <v>1421.460849315288</v>
       </c>
       <c r="AC9" t="n">
-        <v>984.6674085490198</v>
+        <v>1285.798620889468</v>
       </c>
       <c r="AD9" t="n">
-        <v>795587.4450098533</v>
+        <v>1038894.179607366</v>
       </c>
       <c r="AE9" t="n">
-        <v>1088557.841103404</v>
+        <v>1421460.849315288</v>
       </c>
       <c r="AF9" t="n">
         <v>3.327745545809275e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.21875</v>
       </c>
       <c r="AH9" t="n">
-        <v>984667.4085490198</v>
+        <v>1285798.620889468</v>
       </c>
     </row>
     <row r="10">
@@ -44723,28 +44723,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>794.5720776581956</v>
+        <v>1037.878812255708</v>
       </c>
       <c r="AB10" t="n">
-        <v>1087.168570698019</v>
+        <v>1420.071578909904</v>
       </c>
       <c r="AC10" t="n">
-        <v>983.4107281612721</v>
+        <v>1284.541940501721</v>
       </c>
       <c r="AD10" t="n">
-        <v>794572.0776581955</v>
+        <v>1037878.812255709</v>
       </c>
       <c r="AE10" t="n">
-        <v>1087168.57069802</v>
+        <v>1420071.578909904</v>
       </c>
       <c r="AF10" t="n">
         <v>3.328751723951138e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.19270833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>983410.7281612721</v>
+        <v>1284541.940501721</v>
       </c>
     </row>
     <row r="11">
@@ -44829,28 +44829,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>791.0847858677091</v>
+        <v>1034.391520465222</v>
       </c>
       <c r="AB11" t="n">
-        <v>1082.39710422182</v>
+        <v>1415.300112433704</v>
       </c>
       <c r="AC11" t="n">
-        <v>979.0946437487662</v>
+        <v>1280.225856089215</v>
       </c>
       <c r="AD11" t="n">
-        <v>791084.7858677091</v>
+        <v>1034391.520465222</v>
       </c>
       <c r="AE11" t="n">
-        <v>1082397.10422182</v>
+        <v>1415300.112433705</v>
       </c>
       <c r="AF11" t="n">
         <v>3.338939277637498e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>49.03645833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>979094.6437487662</v>
+        <v>1280225.856089215</v>
       </c>
     </row>
     <row r="12">
@@ -44935,28 +44935,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>775.0918061203905</v>
+        <v>1018.465860525608</v>
       </c>
       <c r="AB12" t="n">
-        <v>1060.514803771069</v>
+        <v>1393.509921913794</v>
       </c>
       <c r="AC12" t="n">
-        <v>959.3007593410327</v>
+        <v>1260.5152907698</v>
       </c>
       <c r="AD12" t="n">
-        <v>775091.8061203905</v>
+        <v>1018465.860525608</v>
       </c>
       <c r="AE12" t="n">
-        <v>1060514.803771069</v>
+        <v>1393509.921913794</v>
       </c>
       <c r="AF12" t="n">
         <v>3.360509221553679e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>48.72395833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>959300.7593410327</v>
+        <v>1260515.2907698</v>
       </c>
     </row>
     <row r="13">
@@ -45041,28 +45041,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>772.1302802835697</v>
+        <v>1015.504334688787</v>
       </c>
       <c r="AB13" t="n">
-        <v>1056.462713467831</v>
+        <v>1389.457831610557</v>
       </c>
       <c r="AC13" t="n">
-        <v>955.6353948491919</v>
+        <v>1256.84992627796</v>
       </c>
       <c r="AD13" t="n">
-        <v>772130.2802835697</v>
+        <v>1015504.334688787</v>
       </c>
       <c r="AE13" t="n">
-        <v>1056462.713467831</v>
+        <v>1389457.831610557</v>
       </c>
       <c r="AF13" t="n">
         <v>3.367112265609653e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.64583333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>955635.3948491919</v>
+        <v>1256849.92627796</v>
       </c>
     </row>
     <row r="14">
@@ -45147,28 +45147,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>767.844351283912</v>
+        <v>1011.116920462644</v>
       </c>
       <c r="AB14" t="n">
-        <v>1050.598516328657</v>
+        <v>1383.454777907294</v>
       </c>
       <c r="AC14" t="n">
-        <v>950.3308684545281</v>
+        <v>1251.419795594797</v>
       </c>
       <c r="AD14" t="n">
-        <v>767844.3512839121</v>
+        <v>1011116.920462644</v>
       </c>
       <c r="AE14" t="n">
-        <v>1050598.516328657</v>
+        <v>1383454.777907294</v>
       </c>
       <c r="AF14" t="n">
         <v>3.377236933162146e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>49</v>
+        <v>48.48958333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>950330.868454528</v>
+        <v>1251419.795594797</v>
       </c>
     </row>
     <row r="15">
@@ -45253,28 +45253,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>762.3144654174451</v>
+        <v>1005.587034596177</v>
       </c>
       <c r="AB15" t="n">
-        <v>1043.032282524811</v>
+        <v>1375.888544103447</v>
       </c>
       <c r="AC15" t="n">
-        <v>943.4867453856448</v>
+        <v>1244.575672525913</v>
       </c>
       <c r="AD15" t="n">
-        <v>762314.4654174452</v>
+        <v>1005587.034596177</v>
       </c>
       <c r="AE15" t="n">
-        <v>1043032.282524811</v>
+        <v>1375888.544103447</v>
       </c>
       <c r="AF15" t="n">
         <v>3.392455377557819e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>49</v>
+        <v>48.28125</v>
       </c>
       <c r="AH15" t="n">
-        <v>943486.7453856447</v>
+        <v>1244575.672525913</v>
       </c>
     </row>
     <row r="16">
@@ -45359,28 +45359,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>759.7202787377111</v>
+        <v>1002.992847916443</v>
       </c>
       <c r="AB16" t="n">
-        <v>1039.482801862159</v>
+        <v>1372.339063440796</v>
       </c>
       <c r="AC16" t="n">
-        <v>940.2760221757095</v>
+        <v>1241.364949315978</v>
       </c>
       <c r="AD16" t="n">
-        <v>759720.278737711</v>
+        <v>1002992.847916443</v>
       </c>
       <c r="AE16" t="n">
-        <v>1039482.801862159</v>
+        <v>1372339.063440796</v>
       </c>
       <c r="AF16" t="n">
         <v>3.386921397777575e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>49</v>
+        <v>48.359375</v>
       </c>
       <c r="AH16" t="n">
-        <v>940276.0221757095</v>
+        <v>1241364.949315978</v>
       </c>
     </row>
     <row r="17">
@@ -45465,28 +45465,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>756.5207425337234</v>
+        <v>990.125313757057</v>
       </c>
       <c r="AB17" t="n">
-        <v>1035.105055274288</v>
+        <v>1354.733135528381</v>
       </c>
       <c r="AC17" t="n">
-        <v>936.316081577979</v>
+        <v>1225.43930645345</v>
       </c>
       <c r="AD17" t="n">
-        <v>756520.7425337234</v>
+        <v>990125.3137570571</v>
       </c>
       <c r="AE17" t="n">
-        <v>1035105.055274288</v>
+        <v>1354733.135528381</v>
       </c>
       <c r="AF17" t="n">
         <v>3.399750169086324e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>49</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>936316.081577979</v>
+        <v>1225439.30645345</v>
       </c>
     </row>
     <row r="18">
@@ -45571,28 +45571,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>741.0954880990325</v>
+        <v>984.435377085469</v>
       </c>
       <c r="AB18" t="n">
-        <v>1013.999541642547</v>
+        <v>1346.947913152025</v>
       </c>
       <c r="AC18" t="n">
-        <v>917.2248485454766</v>
+        <v>1218.397094774064</v>
       </c>
       <c r="AD18" t="n">
-        <v>741095.4880990325</v>
+        <v>984435.377085469</v>
       </c>
       <c r="AE18" t="n">
-        <v>1013999.541642547</v>
+        <v>1346947.913152025</v>
       </c>
       <c r="AF18" t="n">
         <v>3.413207801733738e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>48</v>
+        <v>47.96875</v>
       </c>
       <c r="AH18" t="n">
-        <v>917224.8485454766</v>
+        <v>1218397.094774064</v>
       </c>
     </row>
     <row r="19">
@@ -45677,28 +45677,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>742.073349419079</v>
+        <v>985.4132384055155</v>
       </c>
       <c r="AB19" t="n">
-        <v>1015.337494640831</v>
+        <v>1348.285866150309</v>
       </c>
       <c r="AC19" t="n">
-        <v>918.4351091874335</v>
+        <v>1219.607355416021</v>
       </c>
       <c r="AD19" t="n">
-        <v>742073.349419079</v>
+        <v>985413.2384055154</v>
       </c>
       <c r="AE19" t="n">
-        <v>1015337.494640831</v>
+        <v>1348285.866150309</v>
       </c>
       <c r="AF19" t="n">
         <v>3.41352223240307e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>48</v>
+        <v>47.96875</v>
       </c>
       <c r="AH19" t="n">
-        <v>918435.1091874335</v>
+        <v>1219607.355416021</v>
       </c>
     </row>
     <row r="20">
@@ -45783,28 +45783,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>743.2611332943759</v>
+        <v>986.6010222808123</v>
       </c>
       <c r="AB20" t="n">
-        <v>1016.962672940339</v>
+        <v>1349.911044449817</v>
       </c>
       <c r="AC20" t="n">
-        <v>919.905182750988</v>
+        <v>1221.077428979576</v>
       </c>
       <c r="AD20" t="n">
-        <v>743261.1332943758</v>
+        <v>986601.0222808124</v>
       </c>
       <c r="AE20" t="n">
-        <v>1016962.672940339</v>
+        <v>1349911.044449817</v>
       </c>
       <c r="AF20" t="n">
         <v>3.413082029466005e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>48</v>
+        <v>47.96875</v>
       </c>
       <c r="AH20" t="n">
-        <v>919905.1827509881</v>
+        <v>1221077.428979576</v>
       </c>
     </row>
   </sheetData>
@@ -46080,19 +46080,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>557.1498934576749</v>
+        <v>791.8529659212792</v>
       </c>
       <c r="AB2" t="n">
-        <v>762.3170639473414</v>
+        <v>1083.448162060827</v>
       </c>
       <c r="AC2" t="n">
-        <v>689.5625932829255</v>
+        <v>980.045390102787</v>
       </c>
       <c r="AD2" t="n">
-        <v>557149.8934576749</v>
+        <v>791852.9659212792</v>
       </c>
       <c r="AE2" t="n">
-        <v>762317.0639473414</v>
+        <v>1083448.162060827</v>
       </c>
       <c r="AF2" t="n">
         <v>7.944563798190482e-06</v>
@@ -46101,7 +46101,7 @@
         <v>50</v>
       </c>
       <c r="AH2" t="n">
-        <v>689562.5932829255</v>
+        <v>980045.3901027869</v>
       </c>
     </row>
   </sheetData>
@@ -46377,28 +46377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>851.8603196567223</v>
+        <v>1135.085224634596</v>
       </c>
       <c r="AB2" t="n">
-        <v>1165.552870779267</v>
+        <v>1553.07368077095</v>
       </c>
       <c r="AC2" t="n">
-        <v>1054.314140655822</v>
+        <v>1404.850508430771</v>
       </c>
       <c r="AD2" t="n">
-        <v>851860.3196567222</v>
+        <v>1135085.224634596</v>
       </c>
       <c r="AE2" t="n">
-        <v>1165552.870779267</v>
+        <v>1553073.680770949</v>
       </c>
       <c r="AF2" t="n">
         <v>3.749175506789079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.76041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1054314.140655822</v>
+        <v>1404850.508430771</v>
       </c>
     </row>
     <row r="3">
@@ -46483,28 +46483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>737.364990997253</v>
+        <v>982.7843101441455</v>
       </c>
       <c r="AB3" t="n">
-        <v>1008.895310929975</v>
+        <v>1344.688850522974</v>
       </c>
       <c r="AC3" t="n">
-        <v>912.6077584482799</v>
+        <v>1216.353633911715</v>
       </c>
       <c r="AD3" t="n">
-        <v>737364.990997253</v>
+        <v>982784.3101441455</v>
       </c>
       <c r="AE3" t="n">
-        <v>1008895.310929975</v>
+        <v>1344688.850522974</v>
       </c>
       <c r="AF3" t="n">
         <v>4.22558869539719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>912607.7584482799</v>
+        <v>1216353.633911715</v>
       </c>
     </row>
     <row r="4">
@@ -46589,28 +46589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>698.4106312095197</v>
+        <v>934.3868424958978</v>
       </c>
       <c r="AB4" t="n">
-        <v>955.5962373233339</v>
+        <v>1278.469300141059</v>
       </c>
       <c r="AC4" t="n">
-        <v>864.3954736209366</v>
+        <v>1156.453984478528</v>
       </c>
       <c r="AD4" t="n">
-        <v>698410.6312095197</v>
+        <v>934386.8424958978</v>
       </c>
       <c r="AE4" t="n">
-        <v>955596.2373233339</v>
+        <v>1278469.300141059</v>
       </c>
       <c r="AF4" t="n">
         <v>4.396591753319376e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.27083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>864395.4736209366</v>
+        <v>1156453.984478528</v>
       </c>
     </row>
     <row r="5">
@@ -46695,28 +46695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>676.4588465274843</v>
+        <v>912.4008923950814</v>
       </c>
       <c r="AB5" t="n">
-        <v>925.560837076982</v>
+        <v>1248.38715326146</v>
       </c>
       <c r="AC5" t="n">
-        <v>837.2266098191478</v>
+        <v>1129.242835476559</v>
       </c>
       <c r="AD5" t="n">
-        <v>676458.8465274842</v>
+        <v>912400.8923950815</v>
       </c>
       <c r="AE5" t="n">
-        <v>925560.837076982</v>
+        <v>1248387.15326146</v>
       </c>
       <c r="AF5" t="n">
         <v>4.48608557157048e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.28125</v>
       </c>
       <c r="AH5" t="n">
-        <v>837226.6098191479</v>
+        <v>1129242.835476559</v>
       </c>
     </row>
     <row r="6">
@@ -46801,28 +46801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>655.0445693385086</v>
+        <v>891.0539350138104</v>
       </c>
       <c r="AB6" t="n">
-        <v>896.2608782957921</v>
+        <v>1219.179304411111</v>
       </c>
       <c r="AC6" t="n">
-        <v>810.722997981284</v>
+        <v>1102.822542727014</v>
       </c>
       <c r="AD6" t="n">
-        <v>655044.5693385086</v>
+        <v>891053.9350138104</v>
       </c>
       <c r="AE6" t="n">
-        <v>896260.878295792</v>
+        <v>1219179.304411111</v>
       </c>
       <c r="AF6" t="n">
         <v>4.556616015694028e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.52604166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>810722.997981284</v>
+        <v>1102822.542727015</v>
       </c>
     </row>
     <row r="7">
@@ -46907,28 +46907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>650.0467050734831</v>
+        <v>876.5798084993467</v>
       </c>
       <c r="AB7" t="n">
-        <v>889.4225799181738</v>
+        <v>1199.375165960627</v>
       </c>
       <c r="AC7" t="n">
-        <v>804.5373372032137</v>
+        <v>1084.908483454961</v>
       </c>
       <c r="AD7" t="n">
-        <v>650046.7050734831</v>
+        <v>876579.8084993466</v>
       </c>
       <c r="AE7" t="n">
-        <v>889422.5799181738</v>
+        <v>1199375.165960627</v>
       </c>
       <c r="AF7" t="n">
         <v>4.574414972111999e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.34375</v>
       </c>
       <c r="AH7" t="n">
-        <v>804537.3372032137</v>
+        <v>1084908.483454962</v>
       </c>
     </row>
     <row r="8">
@@ -47013,28 +47013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>650.5835488786104</v>
+        <v>877.1166523044737</v>
       </c>
       <c r="AB8" t="n">
-        <v>890.1571132962262</v>
+        <v>1200.109699338679</v>
       </c>
       <c r="AC8" t="n">
-        <v>805.2017677465886</v>
+        <v>1085.572913998337</v>
       </c>
       <c r="AD8" t="n">
-        <v>650583.5488786104</v>
+        <v>877116.6523044738</v>
       </c>
       <c r="AE8" t="n">
-        <v>890157.1132962261</v>
+        <v>1200109.699338679</v>
       </c>
       <c r="AF8" t="n">
         <v>4.57058902820907e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>48</v>
+        <v>47.39583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>805201.7677465887</v>
+        <v>1085572.913998337</v>
       </c>
     </row>
   </sheetData>
@@ -47310,28 +47310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>992.5136093061963</v>
+        <v>1298.237778259325</v>
       </c>
       <c r="AB2" t="n">
-        <v>1358.000906862877</v>
+        <v>1776.306202422975</v>
       </c>
       <c r="AC2" t="n">
-        <v>1228.395206278126</v>
+        <v>1606.778031525139</v>
       </c>
       <c r="AD2" t="n">
-        <v>992513.6093061962</v>
+        <v>1298237.778259325</v>
       </c>
       <c r="AE2" t="n">
-        <v>1358000.906862877</v>
+        <v>1776306.202422975</v>
       </c>
       <c r="AF2" t="n">
         <v>3.083937920504682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.52604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1228395.206278126</v>
+        <v>1606778.031525139</v>
       </c>
     </row>
     <row r="3">
@@ -47416,28 +47416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>818.1012384847219</v>
+        <v>1085.469964996096</v>
       </c>
       <c r="AB3" t="n">
-        <v>1119.362206574188</v>
+        <v>1485.187893662781</v>
       </c>
       <c r="AC3" t="n">
-        <v>1012.531848613471</v>
+        <v>1343.443645565905</v>
       </c>
       <c r="AD3" t="n">
-        <v>818101.2384847219</v>
+        <v>1085469.964996096</v>
       </c>
       <c r="AE3" t="n">
-        <v>1119362.206574188</v>
+        <v>1485187.893662781</v>
       </c>
       <c r="AF3" t="n">
         <v>3.604876882893431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.48958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1012531.848613471</v>
+        <v>1343443.645565905</v>
       </c>
     </row>
     <row r="4">
@@ -47522,28 +47522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>762.9520329431426</v>
+        <v>1020.833131313099</v>
       </c>
       <c r="AB4" t="n">
-        <v>1043.904630540964</v>
+        <v>1396.748926241856</v>
       </c>
       <c r="AC4" t="n">
-        <v>944.2758377314846</v>
+        <v>1263.445169070764</v>
       </c>
       <c r="AD4" t="n">
-        <v>762952.0329431426</v>
+        <v>1020833.131313099</v>
       </c>
       <c r="AE4" t="n">
-        <v>1043904.630540964</v>
+        <v>1396748.926241857</v>
       </c>
       <c r="AF4" t="n">
         <v>3.793285856495504e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.83333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>944275.8377314846</v>
+        <v>1263445.169070764</v>
       </c>
     </row>
     <row r="5">
@@ -47628,28 +47628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>739.7162450353557</v>
+        <v>988.0765608749711</v>
       </c>
       <c r="AB5" t="n">
-        <v>1012.112400434915</v>
+        <v>1351.929941450513</v>
       </c>
       <c r="AC5" t="n">
-        <v>915.5178134460814</v>
+        <v>1222.903645284065</v>
       </c>
       <c r="AD5" t="n">
-        <v>739716.2450353557</v>
+        <v>988076.5608749711</v>
       </c>
       <c r="AE5" t="n">
-        <v>1012112.400434915</v>
+        <v>1351929.941450513</v>
       </c>
       <c r="AF5" t="n">
         <v>3.8887493655258e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.58333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>915517.8134460814</v>
+        <v>1222903.645284065</v>
       </c>
     </row>
     <row r="6">
@@ -47734,28 +47734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>719.9858923278349</v>
+        <v>968.3120427486693</v>
       </c>
       <c r="AB6" t="n">
-        <v>985.1164614187561</v>
+        <v>1324.887255801106</v>
       </c>
       <c r="AC6" t="n">
-        <v>891.0983289605863</v>
+        <v>1198.441875598391</v>
       </c>
       <c r="AD6" t="n">
-        <v>719985.8923278349</v>
+        <v>968312.0427486694</v>
       </c>
       <c r="AE6" t="n">
-        <v>985116.4614187561</v>
+        <v>1324887.255801106</v>
       </c>
       <c r="AF6" t="n">
         <v>3.948589951481175e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.85416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>891098.3289605863</v>
+        <v>1198441.875598391</v>
       </c>
     </row>
     <row r="7">
@@ -47840,28 +47840,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>710.9112191309595</v>
+        <v>949.6492672137481</v>
       </c>
       <c r="AB7" t="n">
-        <v>972.7000932044648</v>
+        <v>1299.352022970679</v>
       </c>
       <c r="AC7" t="n">
-        <v>879.8669615021848</v>
+        <v>1175.343689550375</v>
       </c>
       <c r="AD7" t="n">
-        <v>710911.2191309595</v>
+        <v>949649.2672137481</v>
       </c>
       <c r="AE7" t="n">
-        <v>972700.0932044648</v>
+        <v>1299352.022970679</v>
       </c>
       <c r="AF7" t="n">
         <v>3.993766631472238e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.28125</v>
       </c>
       <c r="AH7" t="n">
-        <v>879866.9615021849</v>
+        <v>1175343.689550375</v>
       </c>
     </row>
     <row r="8">
@@ -47946,28 +47946,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>704.8872018105844</v>
+        <v>934.1386327818126</v>
       </c>
       <c r="AB8" t="n">
-        <v>964.4577669458398</v>
+        <v>1278.129688660008</v>
       </c>
       <c r="AC8" t="n">
-        <v>872.4112712935056</v>
+        <v>1156.146785040581</v>
       </c>
       <c r="AD8" t="n">
-        <v>704887.2018105844</v>
+        <v>934138.6327818126</v>
       </c>
       <c r="AE8" t="n">
-        <v>964457.7669458399</v>
+        <v>1278129.688660008</v>
       </c>
       <c r="AF8" t="n">
         <v>4.015392189763042e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.02083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>872411.2712935056</v>
+        <v>1156146.785040581</v>
       </c>
     </row>
     <row r="9">
@@ -48052,28 +48052,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>686.820846460606</v>
+        <v>925.6262143510992</v>
       </c>
       <c r="AB9" t="n">
-        <v>939.7385825246531</v>
+        <v>1266.482622221709</v>
       </c>
       <c r="AC9" t="n">
-        <v>850.0512511398837</v>
+        <v>1145.611298276393</v>
       </c>
       <c r="AD9" t="n">
-        <v>686820.8464606061</v>
+        <v>925626.2143510992</v>
       </c>
       <c r="AE9" t="n">
-        <v>939738.5825246531</v>
+        <v>1266482.622221709</v>
       </c>
       <c r="AF9" t="n">
         <v>4.047312106281318e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>48</v>
+        <v>47.65625</v>
       </c>
       <c r="AH9" t="n">
-        <v>850051.2511398837</v>
+        <v>1145611.298276393</v>
       </c>
     </row>
     <row r="10">
@@ -48158,28 +48158,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>683.0032401901816</v>
+        <v>921.8086080806748</v>
       </c>
       <c r="AB10" t="n">
-        <v>934.5151652045564</v>
+        <v>1261.259204901613</v>
       </c>
       <c r="AC10" t="n">
-        <v>845.3263494377047</v>
+        <v>1140.886396574214</v>
       </c>
       <c r="AD10" t="n">
-        <v>683003.2401901816</v>
+        <v>921808.6080806749</v>
       </c>
       <c r="AE10" t="n">
-        <v>934515.1652045564</v>
+        <v>1261259.204901613</v>
       </c>
       <c r="AF10" t="n">
         <v>4.054199698476676e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>48</v>
+        <v>47.578125</v>
       </c>
       <c r="AH10" t="n">
-        <v>845326.3494377048</v>
+        <v>1140886.396574214</v>
       </c>
     </row>
     <row r="11">
@@ -48264,28 +48264,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>680.9223153155207</v>
+        <v>910.1395808679678</v>
       </c>
       <c r="AB11" t="n">
-        <v>931.6679519871187</v>
+        <v>1245.293127068039</v>
       </c>
       <c r="AC11" t="n">
-        <v>842.7508702536504</v>
+        <v>1126.444098800546</v>
       </c>
       <c r="AD11" t="n">
-        <v>680922.3153155206</v>
+        <v>910139.5808679678</v>
       </c>
       <c r="AE11" t="n">
-        <v>931667.9519871187</v>
+        <v>1245293.127068039</v>
       </c>
       <c r="AF11" t="n">
         <v>4.065975259326805e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>48</v>
+        <v>47.421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>842750.8702536505</v>
+        <v>1126444.098800546</v>
       </c>
     </row>
   </sheetData>
